--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_14_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_14_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2592400.233233902</v>
+        <v>-2594259.288516261</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4728206.377206869</v>
+        <v>4728206.377206867</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673438</v>
       </c>
     </row>
     <row r="9">
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>318.4716714268618</v>
+        <v>204.6626467597986</v>
       </c>
       <c r="C11" t="n">
-        <v>301.0107215343888</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>290.4208713840642</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>317.6681998356431</v>
       </c>
       <c r="F11" t="n">
-        <v>342.6138755050927</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>348.305269075243</v>
@@ -1388,7 +1388,7 @@
         <v>247.1997591548758</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>40.7611353520936</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.42729154253638</v>
+        <v>82.42729154253645</v>
       </c>
       <c r="T11" t="n">
-        <v>146.8599114426837</v>
+        <v>146.8599114426838</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>117.9097031601322</v>
+        <v>263.4900882335162</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>284.9787984807943</v>
       </c>
       <c r="X11" t="n">
         <v>305.4689304418503</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.9757684194348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>98.10098430633195</v>
       </c>
       <c r="I12" t="n">
-        <v>39.00811765986585</v>
+        <v>39.00811765986587</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.291614910404789</v>
+        <v>9.291614910404817</v>
       </c>
       <c r="S12" t="n">
         <v>144.499048576932</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>115.5698099453186</v>
       </c>
       <c r="C13" t="n">
-        <v>102.984650862009</v>
+        <v>21.07043048326085</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>81.15887778631246</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>54.99856029411446</v>
+        <v>102.5018485138554</v>
       </c>
       <c r="H13" t="n">
-        <v>87.05620704710245</v>
+        <v>87.0562070471025</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.86261053062139</v>
+        <v>57.86261053062147</v>
       </c>
       <c r="S13" t="n">
-        <v>138.3718506593841</v>
+        <v>138.3718506593842</v>
       </c>
       <c r="T13" t="n">
-        <v>158.4409511393645</v>
+        <v>158.4409511393646</v>
       </c>
       <c r="U13" t="n">
-        <v>221.9899339958002</v>
+        <v>221.9899339958003</v>
       </c>
       <c r="V13" t="n">
-        <v>187.8754730872092</v>
+        <v>187.8754730872093</v>
       </c>
       <c r="W13" t="n">
-        <v>222.2608280999722</v>
+        <v>222.2608280999723</v>
       </c>
       <c r="X13" t="n">
         <v>161.4474851524184</v>
       </c>
       <c r="Y13" t="n">
-        <v>154.322483115476</v>
+        <v>154.3224831154761</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>318.4716714268618</v>
       </c>
       <c r="C14" t="n">
-        <v>301.0107215343888</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>342.6138755050927</v>
       </c>
       <c r="G14" t="n">
-        <v>340.0549360590335</v>
+        <v>348.305269075243</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>81.19773036678424</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>40.76113535209353</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.42729154253639</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>146.8599114426838</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>263.4900882335161</v>
       </c>
       <c r="W14" t="n">
         <v>284.9787984807942</v>
@@ -1673,7 +1673,7 @@
         <v>305.4689304418503</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.9757684194348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>98.10098430633195</v>
       </c>
       <c r="I15" t="n">
-        <v>39.00811765986585</v>
+        <v>39.00811765986587</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.291614910404789</v>
+        <v>9.291614910404817</v>
       </c>
       <c r="S15" t="n">
         <v>144.499048576932</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>102.5018485138553</v>
       </c>
       <c r="H16" t="n">
         <v>87.05620704710246</v>
       </c>
       <c r="I16" t="n">
-        <v>54.29025295233657</v>
+        <v>54.29025295233659</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.86261053062139</v>
+        <v>57.86261053062141</v>
       </c>
       <c r="S16" t="n">
         <v>138.3718506593841</v>
@@ -1819,7 +1819,7 @@
         <v>158.4409511393645</v>
       </c>
       <c r="U16" t="n">
-        <v>188.287309178572</v>
+        <v>85.78546066471598</v>
       </c>
       <c r="V16" t="n">
         <v>187.8754730872092</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>2.062958362185007</v>
+        <v>2.062958362185</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>72.58365483301399</v>
+        <v>72.583654833015</v>
       </c>
       <c r="V17" t="n">
         <v>183.1257550531647</v>
@@ -1907,7 +1907,7 @@
         <v>204.6144653004428</v>
       </c>
       <c r="X17" t="n">
-        <v>225.1045972614989</v>
+        <v>225.1045972614988</v>
       </c>
       <c r="Y17" t="n">
         <v>241.6114352390834</v>
@@ -1941,7 +1941,7 @@
         <v>98.10098430633195</v>
       </c>
       <c r="I18" t="n">
-        <v>39.00811765986585</v>
+        <v>39.00811765986587</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.291614910404789</v>
+        <v>9.291614910404817</v>
       </c>
       <c r="S18" t="n">
         <v>144.499048576932</v>
@@ -1999,31 +1999,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>35.20547676496713</v>
+        <v>35.2054767649671</v>
       </c>
       <c r="C19" t="n">
-        <v>22.62031768165767</v>
+        <v>105.2356908089743</v>
       </c>
       <c r="D19" t="n">
-        <v>3.988969601242189</v>
+        <v>3.988969601242161</v>
       </c>
       <c r="E19" t="n">
-        <v>1.807459229599004</v>
+        <v>1.807459229598976</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7945446059610788</v>
+        <v>0.7945446059610504</v>
       </c>
       <c r="G19" t="n">
-        <v>22.13751533350391</v>
+        <v>22.13751533350388</v>
       </c>
       <c r="H19" t="n">
-        <v>6.691873866751068</v>
+        <v>6.691873866751044</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>6.613065132155953</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>122.1247807672402</v>
       </c>
       <c r="S19" t="n">
-        <v>58.00751747903273</v>
+        <v>58.0075174790327</v>
       </c>
       <c r="T19" t="n">
-        <v>144.8033335687558</v>
+        <v>78.07661795901312</v>
       </c>
       <c r="U19" t="n">
         <v>141.6256008154488</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>107.5111399068578</v>
       </c>
       <c r="W19" t="n">
-        <v>141.8964949196208</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>81.08315197206699</v>
+        <v>81.08315197206696</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>73.9581499351246</v>
       </c>
     </row>
     <row r="20">
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>2.062958362185007</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>66.49557826233234</v>
+        <v>66.49557826233233</v>
       </c>
       <c r="U20" t="n">
-        <v>6.088076570682319</v>
+        <v>8.151034932867063</v>
       </c>
       <c r="V20" t="n">
         <v>183.1257550531647</v>
@@ -2144,7 +2144,7 @@
         <v>204.6144653004428</v>
       </c>
       <c r="X20" t="n">
-        <v>225.1045972614989</v>
+        <v>225.1045972614988</v>
       </c>
       <c r="Y20" t="n">
         <v>241.6114352390834</v>
@@ -2178,7 +2178,7 @@
         <v>98.10098430633195</v>
       </c>
       <c r="I21" t="n">
-        <v>39.00811765986585</v>
+        <v>39.00811765986587</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.291614910404789</v>
+        <v>9.291614910404817</v>
       </c>
       <c r="S21" t="n">
         <v>144.499048576932</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>35.20547676496713</v>
+        <v>35.2054767649671</v>
       </c>
       <c r="C22" t="n">
-        <v>22.62031768165767</v>
+        <v>22.62031768165764</v>
       </c>
       <c r="D22" t="n">
-        <v>3.988969601242189</v>
+        <v>3.988969601242161</v>
       </c>
       <c r="E22" t="n">
-        <v>1.807459229599004</v>
+        <v>1.807459229598976</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7945446059610788</v>
+        <v>0.7945446059610504</v>
       </c>
       <c r="G22" t="n">
-        <v>22.13751533350391</v>
+        <v>166.7640187504741</v>
       </c>
       <c r="H22" t="n">
-        <v>6.691873866751068</v>
+        <v>151.3183772837212</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>58.00751747903273</v>
+        <v>124.7342330887751</v>
       </c>
       <c r="T22" t="n">
-        <v>78.07661795901315</v>
+        <v>78.07661795901312</v>
       </c>
       <c r="U22" t="n">
         <v>141.6256008154488</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>107.5111399068578</v>
       </c>
       <c r="W22" t="n">
-        <v>208.6232105293635</v>
+        <v>141.8964949196208</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>81.08315197206696</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.95814993512462</v>
+        <v>73.9581499351246</v>
       </c>
     </row>
     <row r="23">
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>2.062958362185007</v>
+        <v>2.062958362185</v>
       </c>
       <c r="T23" t="n">
-        <v>66.49557826233236</v>
+        <v>66.49557826233233</v>
       </c>
       <c r="U23" t="n">
         <v>106.5003256346045</v>
@@ -2381,7 +2381,7 @@
         <v>204.6144653004428</v>
       </c>
       <c r="X23" t="n">
-        <v>225.1045972614989</v>
+        <v>225.1045972614988</v>
       </c>
       <c r="Y23" t="n">
         <v>241.6114352390834</v>
@@ -2415,7 +2415,7 @@
         <v>98.10098430633195</v>
       </c>
       <c r="I24" t="n">
-        <v>39.00811765986585</v>
+        <v>39.00811765986587</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.291614910404789</v>
+        <v>9.291614910404817</v>
       </c>
       <c r="S24" t="n">
         <v>144.499048576932</v>
@@ -2473,31 +2473,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>35.20547676496713</v>
+        <v>35.2054767649671</v>
       </c>
       <c r="C25" t="n">
-        <v>22.62031768165767</v>
+        <v>22.62031768165764</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>3.988969601242161</v>
       </c>
       <c r="E25" t="n">
-        <v>1.807459229599004</v>
+        <v>1.807459229598976</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7945446059610788</v>
+        <v>0.7945446059610504</v>
       </c>
       <c r="G25" t="n">
-        <v>166.7640187504741</v>
+        <v>22.13751533350388</v>
       </c>
       <c r="H25" t="n">
-        <v>6.691873866751068</v>
+        <v>6.691873866751044</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>6.613065132155953</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>58.00751747903273</v>
+        <v>202.6340208960029</v>
       </c>
       <c r="T25" t="n">
-        <v>78.07661795901315</v>
+        <v>222.7031213759833</v>
       </c>
       <c r="U25" t="n">
         <v>141.6256008154488</v>
       </c>
       <c r="V25" t="n">
-        <v>174.2378555166007</v>
+        <v>107.5111399068578</v>
       </c>
       <c r="W25" t="n">
         <v>141.8964949196208</v>
       </c>
       <c r="X25" t="n">
-        <v>81.08315197206699</v>
+        <v>81.08315197206696</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.95814993512462</v>
+        <v>134.071800412711</v>
       </c>
     </row>
     <row r="26">
@@ -2555,25 +2555,25 @@
         <v>302.3695084831292</v>
       </c>
       <c r="C26" t="n">
-        <v>284.9085585906562</v>
+        <v>284.9085585906561</v>
       </c>
       <c r="D26" t="n">
-        <v>274.3187084403316</v>
+        <v>274.3187084403315</v>
       </c>
       <c r="E26" t="n">
         <v>301.5660368919104</v>
       </c>
       <c r="F26" t="n">
-        <v>326.5117125613601</v>
+        <v>326.51171256136</v>
       </c>
       <c r="G26" t="n">
-        <v>332.2031061315104</v>
+        <v>332.2031061315103</v>
       </c>
       <c r="H26" t="n">
-        <v>231.0975962111432</v>
+        <v>231.0975962111431</v>
       </c>
       <c r="I26" t="n">
-        <v>24.6589724083609</v>
+        <v>24.65897240836088</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.3251285988038</v>
+        <v>66.32512859880374</v>
       </c>
       <c r="T26" t="n">
         <v>130.7577484989511</v>
       </c>
       <c r="U26" t="n">
-        <v>170.7624958712233</v>
+        <v>170.7624958712232</v>
       </c>
       <c r="V26" t="n">
         <v>247.3879252897835</v>
@@ -2618,7 +2618,7 @@
         <v>268.8766355370616</v>
       </c>
       <c r="X26" t="n">
-        <v>289.3667674981177</v>
+        <v>289.3667674981176</v>
       </c>
       <c r="Y26" t="n">
         <v>305.8736054757022</v>
@@ -2652,7 +2652,7 @@
         <v>98.10098430633195</v>
       </c>
       <c r="I27" t="n">
-        <v>39.00811765986584</v>
+        <v>39.00811765986587</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.291614910404775</v>
+        <v>9.291614910404817</v>
       </c>
       <c r="S27" t="n">
         <v>144.499048576932</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.46764700158593</v>
+        <v>99.46764700158586</v>
       </c>
       <c r="C28" t="n">
-        <v>86.88248791827647</v>
+        <v>86.8824879182764</v>
       </c>
       <c r="D28" t="n">
-        <v>68.25113983786099</v>
+        <v>68.25113983786092</v>
       </c>
       <c r="E28" t="n">
-        <v>66.0696294662178</v>
+        <v>66.06962946621773</v>
       </c>
       <c r="F28" t="n">
-        <v>65.05671484257988</v>
+        <v>65.05671484257981</v>
       </c>
       <c r="G28" t="n">
-        <v>86.3996855701227</v>
+        <v>86.39968557012264</v>
       </c>
       <c r="H28" t="n">
-        <v>70.95404410336987</v>
+        <v>70.9540441033698</v>
       </c>
       <c r="I28" t="n">
-        <v>38.18809000860399</v>
+        <v>38.18809000860394</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.7604475868888</v>
+        <v>41.76044758688876</v>
       </c>
       <c r="S28" t="n">
         <v>122.2696877156515</v>
       </c>
       <c r="T28" t="n">
-        <v>142.338788195632</v>
+        <v>142.3387881956319</v>
       </c>
       <c r="U28" t="n">
         <v>205.8877710520676</v>
@@ -2776,7 +2776,7 @@
         <v>206.1586651562396</v>
       </c>
       <c r="X28" t="n">
-        <v>145.3453222086858</v>
+        <v>145.3453222086857</v>
       </c>
       <c r="Y28" t="n">
         <v>138.2203201717434</v>
@@ -2810,7 +2810,7 @@
         <v>231.0975962111432</v>
       </c>
       <c r="I29" t="n">
-        <v>24.65897240836091</v>
+        <v>24.65897240836094</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.32512859880381</v>
+        <v>66.3251285988038</v>
       </c>
       <c r="T29" t="n">
-        <v>130.7577484989511</v>
+        <v>130.7577484989512</v>
       </c>
       <c r="U29" t="n">
         <v>170.7624958712233</v>
@@ -2889,7 +2889,7 @@
         <v>98.10098430633195</v>
       </c>
       <c r="I30" t="n">
-        <v>39.00811765986585</v>
+        <v>39.00811765986587</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.291614910404789</v>
+        <v>9.291614910404817</v>
       </c>
       <c r="S30" t="n">
         <v>144.499048576932</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.46764700158593</v>
+        <v>99.46764700158592</v>
       </c>
       <c r="C31" t="n">
-        <v>86.88248791827647</v>
+        <v>86.88248791827645</v>
       </c>
       <c r="D31" t="n">
-        <v>68.25113983786099</v>
+        <v>68.25113983786098</v>
       </c>
       <c r="E31" t="n">
-        <v>66.0696294662178</v>
+        <v>66.06962946621779</v>
       </c>
       <c r="F31" t="n">
-        <v>65.05671484257988</v>
+        <v>65.05671484257986</v>
       </c>
       <c r="G31" t="n">
-        <v>86.3996855701227</v>
+        <v>86.39968557012271</v>
       </c>
       <c r="H31" t="n">
-        <v>70.95404410336987</v>
+        <v>70.95404410336985</v>
       </c>
       <c r="I31" t="n">
         <v>38.18809000860399</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76044758688881</v>
+        <v>41.76044758688882</v>
       </c>
       <c r="S31" t="n">
         <v>122.2696877156515</v>
@@ -3029,25 +3029,25 @@
         <v>302.3695084831292</v>
       </c>
       <c r="C32" t="n">
-        <v>284.9085585906562</v>
+        <v>284.9085585906561</v>
       </c>
       <c r="D32" t="n">
-        <v>274.3187084403316</v>
+        <v>274.3187084403315</v>
       </c>
       <c r="E32" t="n">
         <v>301.5660368919104</v>
       </c>
       <c r="F32" t="n">
-        <v>326.5117125613601</v>
+        <v>326.51171256136</v>
       </c>
       <c r="G32" t="n">
-        <v>332.2031061315104</v>
+        <v>332.2031061315103</v>
       </c>
       <c r="H32" t="n">
-        <v>231.0975962111432</v>
+        <v>231.0975962111431</v>
       </c>
       <c r="I32" t="n">
-        <v>24.65897240836092</v>
+        <v>24.6589724083609</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.32512859880384</v>
+        <v>66.32512859880376</v>
       </c>
       <c r="T32" t="n">
         <v>130.7577484989511</v>
       </c>
       <c r="U32" t="n">
-        <v>170.7624958712233</v>
+        <v>170.7624958712232</v>
       </c>
       <c r="V32" t="n">
         <v>247.3879252897835</v>
@@ -3092,7 +3092,7 @@
         <v>268.8766355370616</v>
       </c>
       <c r="X32" t="n">
-        <v>289.3667674981177</v>
+        <v>289.3667674981176</v>
       </c>
       <c r="Y32" t="n">
         <v>305.8736054757022</v>
@@ -3126,7 +3126,7 @@
         <v>98.10098430633195</v>
       </c>
       <c r="I33" t="n">
-        <v>39.00811765986585</v>
+        <v>39.00811765986587</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.291614910404789</v>
+        <v>9.291614910404817</v>
       </c>
       <c r="S33" t="n">
         <v>144.499048576932</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.46764700158595</v>
+        <v>99.46764700158587</v>
       </c>
       <c r="C34" t="n">
-        <v>86.88248791827648</v>
+        <v>86.88248791827641</v>
       </c>
       <c r="D34" t="n">
-        <v>68.251139837861</v>
+        <v>68.25113983786093</v>
       </c>
       <c r="E34" t="n">
-        <v>66.06962946621782</v>
+        <v>66.06962946621775</v>
       </c>
       <c r="F34" t="n">
-        <v>65.05671484257989</v>
+        <v>65.05671484257982</v>
       </c>
       <c r="G34" t="n">
-        <v>86.39968557012271</v>
+        <v>86.39968557012267</v>
       </c>
       <c r="H34" t="n">
-        <v>70.95404410336988</v>
+        <v>70.95404410336982</v>
       </c>
       <c r="I34" t="n">
-        <v>38.18809000860401</v>
+        <v>38.18809000860395</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76044758688882</v>
+        <v>41.76044758688877</v>
       </c>
       <c r="S34" t="n">
         <v>122.2696877156515</v>
       </c>
       <c r="T34" t="n">
-        <v>142.338788195632</v>
+        <v>142.3387881956319</v>
       </c>
       <c r="U34" t="n">
         <v>205.8877710520676</v>
@@ -3250,7 +3250,7 @@
         <v>206.1586651562396</v>
       </c>
       <c r="X34" t="n">
-        <v>145.3453222086858</v>
+        <v>145.3453222086857</v>
       </c>
       <c r="Y34" t="n">
         <v>138.2203201717434</v>
@@ -3266,25 +3266,25 @@
         <v>302.3695084831292</v>
       </c>
       <c r="C35" t="n">
-        <v>284.9085585906562</v>
+        <v>284.9085585906561</v>
       </c>
       <c r="D35" t="n">
-        <v>274.3187084403316</v>
+        <v>274.3187084403315</v>
       </c>
       <c r="E35" t="n">
         <v>301.5660368919104</v>
       </c>
       <c r="F35" t="n">
-        <v>326.5117125613601</v>
+        <v>326.51171256136</v>
       </c>
       <c r="G35" t="n">
-        <v>332.2031061315104</v>
+        <v>332.2031061315103</v>
       </c>
       <c r="H35" t="n">
-        <v>231.0975962111432</v>
+        <v>231.0975962111431</v>
       </c>
       <c r="I35" t="n">
-        <v>24.65897240836092</v>
+        <v>24.6589724083609</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.32512859880383</v>
+        <v>66.32512859880376</v>
       </c>
       <c r="T35" t="n">
-        <v>130.7577484989512</v>
+        <v>130.7577484989511</v>
       </c>
       <c r="U35" t="n">
-        <v>170.7624958712233</v>
+        <v>170.7624958712232</v>
       </c>
       <c r="V35" t="n">
         <v>247.3879252897835</v>
@@ -3329,7 +3329,7 @@
         <v>268.8766355370616</v>
       </c>
       <c r="X35" t="n">
-        <v>289.3667674981177</v>
+        <v>289.3667674981176</v>
       </c>
       <c r="Y35" t="n">
         <v>305.8736054757022</v>
@@ -3363,7 +3363,7 @@
         <v>98.10098430633195</v>
       </c>
       <c r="I36" t="n">
-        <v>39.00811765986585</v>
+        <v>39.00811765986587</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.291614910404789</v>
+        <v>9.291614910404817</v>
       </c>
       <c r="S36" t="n">
         <v>144.499048576932</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>99.46764700158595</v>
+        <v>99.46764700158587</v>
       </c>
       <c r="C37" t="n">
-        <v>86.88248791827648</v>
+        <v>86.88248791827641</v>
       </c>
       <c r="D37" t="n">
-        <v>68.251139837861</v>
+        <v>68.25113983786093</v>
       </c>
       <c r="E37" t="n">
-        <v>66.06962946621782</v>
+        <v>66.06962946621775</v>
       </c>
       <c r="F37" t="n">
-        <v>65.05671484257989</v>
+        <v>65.05671484257982</v>
       </c>
       <c r="G37" t="n">
-        <v>86.39968557012273</v>
+        <v>86.39968557012266</v>
       </c>
       <c r="H37" t="n">
-        <v>70.95404410336988</v>
+        <v>70.95404410336981</v>
       </c>
       <c r="I37" t="n">
-        <v>38.18809000860401</v>
+        <v>38.18809000860395</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.76044758688882</v>
+        <v>41.76044758688877</v>
       </c>
       <c r="S37" t="n">
         <v>122.2696877156515</v>
       </c>
       <c r="T37" t="n">
-        <v>142.338788195632</v>
+        <v>142.3387881956319</v>
       </c>
       <c r="U37" t="n">
         <v>205.8877710520676</v>
@@ -3487,7 +3487,7 @@
         <v>206.1586651562396</v>
       </c>
       <c r="X37" t="n">
-        <v>145.3453222086858</v>
+        <v>145.3453222086857</v>
       </c>
       <c r="Y37" t="n">
         <v>138.2203201717434</v>
@@ -3503,25 +3503,25 @@
         <v>302.3695084831292</v>
       </c>
       <c r="C38" t="n">
-        <v>284.9085585906562</v>
+        <v>284.9085585906561</v>
       </c>
       <c r="D38" t="n">
-        <v>274.3187084403316</v>
+        <v>274.3187084403315</v>
       </c>
       <c r="E38" t="n">
         <v>301.5660368919104</v>
       </c>
       <c r="F38" t="n">
-        <v>326.5117125613601</v>
+        <v>326.51171256136</v>
       </c>
       <c r="G38" t="n">
-        <v>332.2031061315104</v>
+        <v>332.2031061315103</v>
       </c>
       <c r="H38" t="n">
-        <v>231.0975962111432</v>
+        <v>231.0975962111431</v>
       </c>
       <c r="I38" t="n">
-        <v>24.65897240836092</v>
+        <v>24.6589724083609</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.32512859880383</v>
+        <v>66.32512859880376</v>
       </c>
       <c r="T38" t="n">
-        <v>130.7577484989512</v>
+        <v>130.7577484989511</v>
       </c>
       <c r="U38" t="n">
-        <v>170.7624958712233</v>
+        <v>170.7624958712232</v>
       </c>
       <c r="V38" t="n">
         <v>247.3879252897835</v>
@@ -3566,7 +3566,7 @@
         <v>268.8766355370616</v>
       </c>
       <c r="X38" t="n">
-        <v>289.3667674981177</v>
+        <v>289.3667674981176</v>
       </c>
       <c r="Y38" t="n">
         <v>305.8736054757022</v>
@@ -3600,7 +3600,7 @@
         <v>98.10098430633195</v>
       </c>
       <c r="I39" t="n">
-        <v>39.00811765986585</v>
+        <v>39.00811765986587</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.291614910404789</v>
+        <v>9.291614910404817</v>
       </c>
       <c r="S39" t="n">
         <v>144.499048576932</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.46764700158595</v>
+        <v>99.46764700158587</v>
       </c>
       <c r="C40" t="n">
-        <v>86.88248791827648</v>
+        <v>86.88248791827641</v>
       </c>
       <c r="D40" t="n">
-        <v>68.251139837861</v>
+        <v>68.25113983786093</v>
       </c>
       <c r="E40" t="n">
-        <v>66.06962946621782</v>
+        <v>66.06962946621775</v>
       </c>
       <c r="F40" t="n">
-        <v>65.05671484257989</v>
+        <v>65.05671484257982</v>
       </c>
       <c r="G40" t="n">
-        <v>86.39968557012273</v>
+        <v>86.39968557012266</v>
       </c>
       <c r="H40" t="n">
-        <v>70.95404410336988</v>
+        <v>70.95404410336981</v>
       </c>
       <c r="I40" t="n">
-        <v>38.18809000860401</v>
+        <v>38.18809000860395</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.76044758688882</v>
+        <v>41.76044758688877</v>
       </c>
       <c r="S40" t="n">
         <v>122.2696877156515</v>
       </c>
       <c r="T40" t="n">
-        <v>142.338788195632</v>
+        <v>142.3387881956319</v>
       </c>
       <c r="U40" t="n">
         <v>205.8877710520676</v>
@@ -3724,7 +3724,7 @@
         <v>206.1586651562396</v>
       </c>
       <c r="X40" t="n">
-        <v>145.3453222086858</v>
+        <v>145.3453222086857</v>
       </c>
       <c r="Y40" t="n">
         <v>138.2203201717434</v>
@@ -3758,7 +3758,7 @@
         <v>231.0975962111432</v>
       </c>
       <c r="I41" t="n">
-        <v>24.65897240836091</v>
+        <v>24.65897240836095</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>66.32512859880381</v>
       </c>
       <c r="T41" t="n">
-        <v>130.7577484989511</v>
+        <v>130.7577484989512</v>
       </c>
       <c r="U41" t="n">
         <v>170.7624958712233</v>
@@ -3837,7 +3837,7 @@
         <v>98.10098430633195</v>
       </c>
       <c r="I42" t="n">
-        <v>39.00811765986585</v>
+        <v>39.00811765986587</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.291614910404789</v>
+        <v>9.291614910404817</v>
       </c>
       <c r="S42" t="n">
         <v>144.499048576932</v>
@@ -3910,13 +3910,13 @@
         <v>65.05671484257988</v>
       </c>
       <c r="G43" t="n">
-        <v>86.3996855701227</v>
+        <v>86.39968557012273</v>
       </c>
       <c r="H43" t="n">
         <v>70.95404410336988</v>
       </c>
       <c r="I43" t="n">
-        <v>38.18809000860399</v>
+        <v>38.18809000860401</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.7604475868888</v>
+        <v>41.76044758688883</v>
       </c>
       <c r="S43" t="n">
         <v>122.2696877156515</v>
@@ -3995,7 +3995,7 @@
         <v>231.0975962111432</v>
       </c>
       <c r="I44" t="n">
-        <v>24.65897240836091</v>
+        <v>24.65897240836095</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.32512859880381</v>
+        <v>66.32512859880383</v>
       </c>
       <c r="T44" t="n">
-        <v>130.7577484989511</v>
+        <v>130.7577484989512</v>
       </c>
       <c r="U44" t="n">
         <v>170.7624958712233</v>
@@ -4074,7 +4074,7 @@
         <v>98.10098430633195</v>
       </c>
       <c r="I45" t="n">
-        <v>39.00811765986585</v>
+        <v>39.00811765986587</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.291614910404789</v>
+        <v>9.291614910404817</v>
       </c>
       <c r="S45" t="n">
         <v>144.499048576932</v>
@@ -4153,7 +4153,7 @@
         <v>70.95404410336987</v>
       </c>
       <c r="I46" t="n">
-        <v>38.18809000860399</v>
+        <v>38.18809000860401</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.76044758688881</v>
+        <v>41.76044758688883</v>
       </c>
       <c r="S46" t="n">
         <v>122.2696877156515</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1303.846517005019</v>
+        <v>1309.124910472009</v>
       </c>
       <c r="C11" t="n">
-        <v>999.7952831318992</v>
+        <v>1309.124910472009</v>
       </c>
       <c r="D11" t="n">
-        <v>999.7952831318992</v>
+        <v>1015.77049493255</v>
       </c>
       <c r="E11" t="n">
-        <v>999.7952831318992</v>
+        <v>694.8935254015977</v>
       </c>
       <c r="F11" t="n">
-        <v>653.7206614095835</v>
+        <v>694.8935254015977</v>
       </c>
       <c r="G11" t="n">
-        <v>301.8971572931769</v>
+        <v>343.0700212851906</v>
       </c>
       <c r="H11" t="n">
-        <v>52.20043087411048</v>
+        <v>93.37329486612421</v>
       </c>
       <c r="I11" t="n">
         <v>52.20043087411048</v>
@@ -5042,25 +5042,25 @@
         <v>270.20410013431</v>
       </c>
       <c r="K11" t="n">
-        <v>717.6798929816111</v>
+        <v>717.679892981611</v>
       </c>
       <c r="L11" t="n">
-        <v>911.6052076622434</v>
+        <v>911.6052076622432</v>
       </c>
       <c r="M11" t="n">
-        <v>1159.0539230964</v>
+        <v>1159.053923096399</v>
       </c>
       <c r="N11" t="n">
-        <v>1805.034255163517</v>
+        <v>1415.12042582478</v>
       </c>
       <c r="O11" t="n">
-        <v>2377.191315222785</v>
+        <v>1826.686216137698</v>
       </c>
       <c r="P11" t="n">
-        <v>2537.676557170988</v>
+        <v>2305.752179175668</v>
       </c>
       <c r="Q11" t="n">
-        <v>2610.021543705524</v>
+        <v>2588.28900646351</v>
       </c>
       <c r="R11" t="n">
         <v>2610.021543705524</v>
@@ -5075,16 +5075,16 @@
         <v>2378.418308366918</v>
       </c>
       <c r="V11" t="n">
-        <v>2259.317598104158</v>
+        <v>2112.266704090639</v>
       </c>
       <c r="W11" t="n">
-        <v>2259.317598104158</v>
+        <v>1824.409331887816</v>
       </c>
       <c r="X11" t="n">
-        <v>1950.763122910369</v>
+        <v>1515.854856694028</v>
       </c>
       <c r="Y11" t="n">
-        <v>1625.535074001849</v>
+        <v>1515.854856694028</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>52.20043087411048</v>
       </c>
       <c r="J12" t="n">
-        <v>63.51841814083025</v>
+        <v>188.3485431278349</v>
       </c>
       <c r="K12" t="n">
-        <v>232.6815283046466</v>
+        <v>547.6681954365251</v>
       </c>
       <c r="L12" t="n">
-        <v>410.1035980693314</v>
+        <v>1092.222207051635</v>
       </c>
       <c r="M12" t="n">
-        <v>1056.083930136449</v>
+        <v>1362.106270936719</v>
       </c>
       <c r="N12" t="n">
-        <v>1302.884765966336</v>
+        <v>2008.086603003836</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.363215178962</v>
+        <v>2211.6413561325</v>
       </c>
       <c r="P12" t="n">
         <v>2355.67892497901</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>381.6936591463714</v>
+        <v>264.9564773834223</v>
       </c>
       <c r="C13" t="n">
-        <v>277.6687592857563</v>
+        <v>243.6732142690174</v>
       </c>
       <c r="D13" t="n">
-        <v>277.6687592857563</v>
+        <v>243.6732142690174</v>
       </c>
       <c r="E13" t="n">
-        <v>277.6687592857563</v>
+        <v>243.6732142690174</v>
       </c>
       <c r="F13" t="n">
-        <v>195.6900948551377</v>
+        <v>243.6732142690174</v>
       </c>
       <c r="G13" t="n">
-        <v>140.1359935479513</v>
+        <v>140.1359935479514</v>
       </c>
       <c r="H13" t="n">
         <v>52.20043087411048</v>
@@ -5197,52 +5197,52 @@
         <v>52.20043087411048</v>
       </c>
       <c r="J13" t="n">
-        <v>109.2730449275287</v>
+        <v>109.2730449275286</v>
       </c>
       <c r="K13" t="n">
-        <v>291.9708056845551</v>
+        <v>291.9708056845549</v>
       </c>
       <c r="L13" t="n">
-        <v>563.4959032733539</v>
+        <v>563.4959032733534</v>
       </c>
       <c r="M13" t="n">
-        <v>856.711825871147</v>
+        <v>856.7118258711465</v>
       </c>
       <c r="N13" t="n">
-        <v>1149.903076288691</v>
+        <v>1149.90307628869</v>
       </c>
       <c r="O13" t="n">
         <v>1409.552953254355</v>
       </c>
       <c r="P13" t="n">
-        <v>1617.389630818506</v>
+        <v>1617.389630818505</v>
       </c>
       <c r="Q13" t="n">
-        <v>1697.422563974903</v>
+        <v>1697.422563974902</v>
       </c>
       <c r="R13" t="n">
-        <v>1638.975482630841</v>
+        <v>1638.97548263084</v>
       </c>
       <c r="S13" t="n">
-        <v>1499.205936510251</v>
+        <v>1499.20593651025</v>
       </c>
       <c r="T13" t="n">
-        <v>1339.164571723014</v>
+        <v>1339.164571723013</v>
       </c>
       <c r="U13" t="n">
         <v>1114.932315161599</v>
       </c>
       <c r="V13" t="n">
-        <v>925.1591100230044</v>
+        <v>925.1591100230036</v>
       </c>
       <c r="W13" t="n">
-        <v>700.6532230533354</v>
+        <v>700.6532230533346</v>
       </c>
       <c r="X13" t="n">
-        <v>537.5749552226098</v>
+        <v>537.5749552226089</v>
       </c>
       <c r="Y13" t="n">
-        <v>381.6936591463714</v>
+        <v>381.6936591463704</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1366.693090403563</v>
+        <v>1194.166299697199</v>
       </c>
       <c r="C14" t="n">
-        <v>1062.641856530443</v>
+        <v>1194.166299697199</v>
       </c>
       <c r="D14" t="n">
-        <v>1062.641856530443</v>
+        <v>1194.166299697199</v>
       </c>
       <c r="E14" t="n">
-        <v>741.76488699949</v>
+        <v>873.2893301662459</v>
       </c>
       <c r="F14" t="n">
-        <v>395.6902652771741</v>
+        <v>527.21470844393</v>
       </c>
       <c r="G14" t="n">
-        <v>52.20043087411047</v>
+        <v>175.391204327523</v>
       </c>
       <c r="H14" t="n">
-        <v>52.20043087411047</v>
+        <v>93.37329486612416</v>
       </c>
       <c r="I14" t="n">
-        <v>52.20043087411047</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="J14" t="n">
-        <v>102.798451113957</v>
+        <v>270.20410013431</v>
       </c>
       <c r="K14" t="n">
-        <v>320.692766164115</v>
+        <v>523.7924277565859</v>
       </c>
       <c r="L14" t="n">
-        <v>928.1026832496933</v>
+        <v>717.717742437218</v>
       </c>
       <c r="M14" t="n">
-        <v>1574.08301531681</v>
+        <v>965.1664578713742</v>
       </c>
       <c r="N14" t="n">
-        <v>1830.149518045192</v>
+        <v>1221.232960599755</v>
       </c>
       <c r="O14" t="n">
-        <v>2058.610594133017</v>
+        <v>1826.686216137698</v>
       </c>
       <c r="P14" t="n">
-        <v>2537.676557170987</v>
+        <v>2305.752179175668</v>
       </c>
       <c r="Q14" t="n">
-        <v>2610.021543705524</v>
+        <v>2588.28900646351</v>
       </c>
       <c r="R14" t="n">
         <v>2610.021543705524</v>
       </c>
       <c r="S14" t="n">
-        <v>2610.021543705524</v>
+        <v>2526.761653258518</v>
       </c>
       <c r="T14" t="n">
-        <v>2610.021543705524</v>
+        <v>2378.418308366918</v>
       </c>
       <c r="U14" t="n">
-        <v>2610.021543705524</v>
+        <v>2378.418308366918</v>
       </c>
       <c r="V14" t="n">
-        <v>2610.021543705524</v>
+        <v>2112.266704090639</v>
       </c>
       <c r="W14" t="n">
-        <v>2322.164171502701</v>
+        <v>1824.409331887817</v>
       </c>
       <c r="X14" t="n">
-        <v>2013.609696308913</v>
+        <v>1515.854856694028</v>
       </c>
       <c r="Y14" t="n">
-        <v>1688.381647400393</v>
+        <v>1515.854856694028</v>
       </c>
     </row>
     <row r="15">
@@ -5346,34 +5346,34 @@
         <v>327.9470021540671</v>
       </c>
       <c r="G15" t="n">
-        <v>190.6944732642093</v>
+        <v>190.6944732642094</v>
       </c>
       <c r="H15" t="n">
-        <v>91.60256992448002</v>
+        <v>91.60256992448012</v>
       </c>
       <c r="I15" t="n">
-        <v>52.20043087411047</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="J15" t="n">
-        <v>188.348543127835</v>
+        <v>188.3485431278349</v>
       </c>
       <c r="K15" t="n">
-        <v>547.6681954365253</v>
+        <v>547.6681954365251</v>
       </c>
       <c r="L15" t="n">
-        <v>1037.660389865681</v>
+        <v>725.0902652012098</v>
       </c>
       <c r="M15" t="n">
-        <v>1264.060444994939</v>
+        <v>951.4903203304676</v>
       </c>
       <c r="N15" t="n">
-        <v>1510.861280824826</v>
+        <v>1597.470652397585</v>
       </c>
       <c r="O15" t="n">
-        <v>2104.339730037452</v>
+        <v>1896.363215178962</v>
       </c>
       <c r="P15" t="n">
-        <v>2563.6554398375</v>
+        <v>2355.67892497901</v>
       </c>
       <c r="Q15" t="n">
         <v>2610.021543705524</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>298.9995327543611</v>
+        <v>402.536753475427</v>
       </c>
       <c r="C16" t="n">
-        <v>194.9746328937459</v>
+        <v>298.5118536148118</v>
       </c>
       <c r="D16" t="n">
-        <v>194.9746328937459</v>
+        <v>298.5118536148118</v>
       </c>
       <c r="E16" t="n">
-        <v>194.9746328937459</v>
+        <v>298.5118536148118</v>
       </c>
       <c r="F16" t="n">
-        <v>194.9746328937459</v>
+        <v>298.5118536148118</v>
       </c>
       <c r="G16" t="n">
-        <v>194.9746328937459</v>
+        <v>194.9746328937458</v>
       </c>
       <c r="H16" t="n">
         <v>107.039070219905</v>
       </c>
       <c r="I16" t="n">
-        <v>52.20043087411047</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="J16" t="n">
         <v>109.2730449275287</v>
       </c>
       <c r="K16" t="n">
-        <v>291.970805684555</v>
+        <v>291.9708056845548</v>
       </c>
       <c r="L16" t="n">
-        <v>563.4959032733536</v>
+        <v>563.4959032733534</v>
       </c>
       <c r="M16" t="n">
-        <v>856.7118258711467</v>
+        <v>856.7118258711464</v>
       </c>
       <c r="N16" t="n">
-        <v>1149.903076288691</v>
+        <v>1149.90307628869</v>
       </c>
       <c r="O16" t="n">
-        <v>1409.552953254355</v>
+        <v>1409.552953254354</v>
       </c>
       <c r="P16" t="n">
-        <v>1617.389630818506</v>
+        <v>1617.389630818505</v>
       </c>
       <c r="Q16" t="n">
-        <v>1697.422563974903</v>
+        <v>1697.422563974902</v>
       </c>
       <c r="R16" t="n">
-        <v>1638.975482630841</v>
+        <v>1638.97548263084</v>
       </c>
       <c r="S16" t="n">
-        <v>1499.205936510251</v>
+        <v>1499.20593651025</v>
       </c>
       <c r="T16" t="n">
         <v>1339.164571723014</v>
       </c>
       <c r="U16" t="n">
-        <v>1148.975370532537</v>
+        <v>1252.512591253603</v>
       </c>
       <c r="V16" t="n">
-        <v>959.2021653939419</v>
+        <v>1062.739386115008</v>
       </c>
       <c r="W16" t="n">
-        <v>734.696278424273</v>
+        <v>838.2334991453395</v>
       </c>
       <c r="X16" t="n">
-        <v>571.6180105935475</v>
+        <v>675.1552313146134</v>
       </c>
       <c r="Y16" t="n">
-        <v>415.7367145173091</v>
+        <v>519.273935238375</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1431.02133734603</v>
+        <v>1431.021337346028</v>
       </c>
       <c r="C17" t="n">
-        <v>1208.146197594477</v>
+        <v>1208.146197594476</v>
       </c>
       <c r="D17" t="n">
-        <v>995.9678761765849</v>
+        <v>995.9678761765838</v>
       </c>
       <c r="E17" t="n">
-        <v>756.2670007671994</v>
+        <v>756.2670007671984</v>
       </c>
       <c r="F17" t="n">
-        <v>491.3684731664506</v>
+        <v>491.3684731664497</v>
       </c>
       <c r="G17" t="n">
-        <v>220.7210631716099</v>
+        <v>220.7210631716098</v>
       </c>
       <c r="H17" t="n">
         <v>52.20043087411047</v>
@@ -5516,25 +5516,25 @@
         <v>270.20410013431</v>
       </c>
       <c r="K17" t="n">
-        <v>396.7759345361581</v>
+        <v>502.2529905737417</v>
       </c>
       <c r="L17" t="n">
-        <v>936.7204705439181</v>
+        <v>696.1783052543739</v>
       </c>
       <c r="M17" t="n">
-        <v>1184.169185978074</v>
+        <v>1342.158637321491</v>
       </c>
       <c r="N17" t="n">
-        <v>1830.149518045192</v>
+        <v>1598.225140049872</v>
       </c>
       <c r="O17" t="n">
-        <v>2058.610594133017</v>
+        <v>1826.686216137697</v>
       </c>
       <c r="P17" t="n">
-        <v>2537.676557170987</v>
+        <v>2305.752179175667</v>
       </c>
       <c r="Q17" t="n">
-        <v>2610.021543705524</v>
+        <v>2588.289006463509</v>
       </c>
       <c r="R17" t="n">
         <v>2610.021543705524</v>
@@ -5546,19 +5546,19 @@
         <v>2607.937747380084</v>
       </c>
       <c r="U17" t="n">
-        <v>2534.620924316434</v>
+        <v>2534.620924316433</v>
       </c>
       <c r="V17" t="n">
-        <v>2349.645414161722</v>
+        <v>2349.645414161721</v>
       </c>
       <c r="W17" t="n">
-        <v>2142.964136080467</v>
+        <v>2142.964136080465</v>
       </c>
       <c r="X17" t="n">
-        <v>1915.585755008246</v>
+        <v>1915.585755008244</v>
       </c>
       <c r="Y17" t="n">
-        <v>1671.533800221293</v>
+        <v>1671.533800221291</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>957.1064540750153</v>
+        <v>957.1064540750159</v>
       </c>
       <c r="C18" t="n">
-        <v>782.6534247938883</v>
+        <v>782.6534247938889</v>
       </c>
       <c r="D18" t="n">
-        <v>633.7190151326372</v>
+        <v>633.7190151326377</v>
       </c>
       <c r="E18" t="n">
-        <v>474.4815601271816</v>
+        <v>474.4815601271822</v>
       </c>
       <c r="F18" t="n">
-        <v>327.9470021540666</v>
+        <v>327.9470021540671</v>
       </c>
       <c r="G18" t="n">
         <v>190.6944732642093</v>
       </c>
       <c r="H18" t="n">
-        <v>91.60256992448002</v>
+        <v>91.60256992448004</v>
       </c>
       <c r="I18" t="n">
         <v>52.20043087411047</v>
       </c>
       <c r="J18" t="n">
-        <v>188.348543127835</v>
+        <v>188.3485431278349</v>
       </c>
       <c r="K18" t="n">
-        <v>547.6681954365253</v>
+        <v>547.6681954365251</v>
       </c>
       <c r="L18" t="n">
-        <v>725.0902652012101</v>
+        <v>1092.222207051635</v>
       </c>
       <c r="M18" t="n">
-        <v>1371.070597268327</v>
+        <v>1446.007626220411</v>
       </c>
       <c r="N18" t="n">
         <v>1692.808462050298</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.363215178961</v>
+        <v>1896.363215178962</v>
       </c>
       <c r="P18" t="n">
-        <v>2355.678924979009</v>
+        <v>2355.67892497901</v>
       </c>
       <c r="Q18" t="n">
         <v>2610.021543705524</v>
@@ -5622,7 +5622,7 @@
         <v>2454.67743917286</v>
       </c>
       <c r="T18" t="n">
-        <v>2258.44941693863</v>
+        <v>2258.449416938631</v>
       </c>
       <c r="U18" t="n">
         <v>2030.323055025515</v>
@@ -5631,13 +5631,13 @@
         <v>1795.170946793772</v>
       </c>
       <c r="W18" t="n">
-        <v>1540.93359006557</v>
+        <v>1540.933590065571</v>
       </c>
       <c r="X18" t="n">
-        <v>1333.082089860037</v>
+        <v>1333.082089860038</v>
       </c>
       <c r="Y18" t="n">
-        <v>1125.321791095083</v>
+        <v>1125.321791095084</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>110.8273806909942</v>
+        <v>200.957116306623</v>
       </c>
       <c r="C19" t="n">
-        <v>87.97857495194609</v>
+        <v>94.65843872180045</v>
       </c>
       <c r="D19" t="n">
-        <v>83.94931272846912</v>
+        <v>90.62917649832352</v>
       </c>
       <c r="E19" t="n">
-        <v>82.12359633493477</v>
+        <v>88.8034601047892</v>
       </c>
       <c r="F19" t="n">
-        <v>81.32102602588319</v>
+        <v>88.00088979573763</v>
       </c>
       <c r="G19" t="n">
-        <v>58.95989942638428</v>
+        <v>65.63976319623876</v>
       </c>
       <c r="H19" t="n">
-        <v>52.20043087411047</v>
+        <v>58.88029464396497</v>
       </c>
       <c r="I19" t="n">
-        <v>52.20043087411047</v>
+        <v>58.88029464396497</v>
       </c>
       <c r="J19" t="n">
         <v>52.20043087411047</v>
       </c>
       <c r="K19" t="n">
-        <v>171.2786430968843</v>
+        <v>171.2786430968842</v>
       </c>
       <c r="L19" t="n">
-        <v>379.1841921514304</v>
+        <v>379.1841921514302</v>
       </c>
       <c r="M19" t="n">
-        <v>608.780566214971</v>
+        <v>608.7805662149708</v>
       </c>
       <c r="N19" t="n">
-        <v>838.3522680982625</v>
+        <v>838.3522680982621</v>
       </c>
       <c r="O19" t="n">
-        <v>1034.382596529674</v>
+        <v>1034.382596529673</v>
       </c>
       <c r="P19" t="n">
         <v>1178.599725559572</v>
       </c>
       <c r="Q19" t="n">
-        <v>1195.013110181717</v>
+        <v>1195.013110181716</v>
       </c>
       <c r="R19" t="n">
-        <v>1195.013110181717</v>
+        <v>1071.654745770363</v>
       </c>
       <c r="S19" t="n">
-        <v>1136.419658182694</v>
+        <v>1013.06129377134</v>
       </c>
       <c r="T19" t="n">
-        <v>990.1536646788999</v>
+        <v>934.1960231056697</v>
       </c>
       <c r="U19" t="n">
-        <v>847.0975022390526</v>
+        <v>791.1398606658224</v>
       </c>
       <c r="V19" t="n">
-        <v>592.4130140331657</v>
+        <v>682.5427496487944</v>
       </c>
       <c r="W19" t="n">
-        <v>449.0832211850638</v>
+        <v>393.1255796118338</v>
       </c>
       <c r="X19" t="n">
-        <v>367.1810474759053</v>
+        <v>311.2234059026752</v>
       </c>
       <c r="Y19" t="n">
-        <v>146.3884683323752</v>
+        <v>236.5182039480039</v>
       </c>
     </row>
     <row r="20">
@@ -5732,55 +5732,55 @@
         <v>1208.146197594475</v>
       </c>
       <c r="D20" t="n">
-        <v>995.9678761765836</v>
+        <v>995.9678761765831</v>
       </c>
       <c r="E20" t="n">
-        <v>756.2670007671984</v>
+        <v>756.2670007671982</v>
       </c>
       <c r="F20" t="n">
-        <v>491.3684731664498</v>
+        <v>491.3684731664497</v>
       </c>
       <c r="G20" t="n">
-        <v>220.7210631716099</v>
+        <v>220.7210631716098</v>
       </c>
       <c r="H20" t="n">
-        <v>52.20043087411047</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="I20" t="n">
-        <v>52.20043087411047</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="J20" t="n">
-        <v>102.798451113957</v>
+        <v>270.20410013431</v>
       </c>
       <c r="K20" t="n">
-        <v>465.5740694554052</v>
+        <v>717.679892981611</v>
       </c>
       <c r="L20" t="n">
-        <v>659.4993841360375</v>
+        <v>911.6052076622432</v>
       </c>
       <c r="M20" t="n">
-        <v>1305.479716203155</v>
+        <v>1159.053923096399</v>
       </c>
       <c r="N20" t="n">
-        <v>1561.546218931536</v>
+        <v>1415.12042582478</v>
       </c>
       <c r="O20" t="n">
-        <v>2166.999474469479</v>
+        <v>1826.686216137698</v>
       </c>
       <c r="P20" t="n">
-        <v>2327.484716417681</v>
+        <v>2305.752179175668</v>
       </c>
       <c r="Q20" t="n">
-        <v>2610.021543705524</v>
+        <v>2588.28900646351</v>
       </c>
       <c r="R20" t="n">
         <v>2610.021543705524</v>
       </c>
       <c r="S20" t="n">
-        <v>2607.937747380084</v>
+        <v>2610.021543705524</v>
       </c>
       <c r="T20" t="n">
-        <v>2540.770496610052</v>
+        <v>2542.85429293549</v>
       </c>
       <c r="U20" t="n">
         <v>2534.620924316433</v>
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>957.1064540750159</v>
+        <v>957.1064540750158</v>
       </c>
       <c r="C21" t="n">
-        <v>782.6534247938889</v>
+        <v>782.6534247938888</v>
       </c>
       <c r="D21" t="n">
         <v>633.7190151326377</v>
       </c>
       <c r="E21" t="n">
-        <v>474.4815601271822</v>
+        <v>474.4815601271821</v>
       </c>
       <c r="F21" t="n">
         <v>327.9470021540671</v>
       </c>
       <c r="G21" t="n">
-        <v>190.6944732642093</v>
+        <v>190.6944732642096</v>
       </c>
       <c r="H21" t="n">
-        <v>91.60256992448002</v>
+        <v>91.60256992448004</v>
       </c>
       <c r="I21" t="n">
-        <v>52.20043087411047</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="J21" t="n">
-        <v>188.348543127835</v>
+        <v>188.3485431278349</v>
       </c>
       <c r="K21" t="n">
-        <v>285.8476107940725</v>
+        <v>547.6681954365251</v>
       </c>
       <c r="L21" t="n">
-        <v>830.4016224091819</v>
+        <v>1092.222207051635</v>
       </c>
       <c r="M21" t="n">
-        <v>1476.381954476299</v>
+        <v>1318.622262180892</v>
       </c>
       <c r="N21" t="n">
-        <v>2122.362286543416</v>
+        <v>1565.42309801078</v>
       </c>
       <c r="O21" t="n">
-        <v>2419.61787099099</v>
+        <v>1896.363215178962</v>
       </c>
       <c r="P21" t="n">
-        <v>2563.655439837501</v>
+        <v>2355.67892497901</v>
       </c>
       <c r="Q21" t="n">
         <v>2610.021543705524</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>110.8273806909942</v>
+        <v>403.0021350687117</v>
       </c>
       <c r="C22" t="n">
-        <v>87.97857495194609</v>
+        <v>380.1533293296636</v>
       </c>
       <c r="D22" t="n">
-        <v>83.94931272846912</v>
+        <v>376.1240671061867</v>
       </c>
       <c r="E22" t="n">
-        <v>82.12359633493477</v>
+        <v>374.2983507126523</v>
       </c>
       <c r="F22" t="n">
-        <v>81.32102602588319</v>
+        <v>373.4957804036007</v>
       </c>
       <c r="G22" t="n">
-        <v>58.95989942638428</v>
+        <v>205.047276615243</v>
       </c>
       <c r="H22" t="n">
-        <v>52.20043087411047</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="I22" t="n">
-        <v>52.20043087411047</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="J22" t="n">
-        <v>52.20043087411047</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="K22" t="n">
         <v>171.2786430968843</v>
       </c>
       <c r="L22" t="n">
-        <v>379.1841921514304</v>
+        <v>379.1841921514302</v>
       </c>
       <c r="M22" t="n">
-        <v>608.780566214971</v>
+        <v>608.7805662149708</v>
       </c>
       <c r="N22" t="n">
-        <v>838.3522680982625</v>
+        <v>838.3522680982621</v>
       </c>
       <c r="O22" t="n">
-        <v>1034.382596529674</v>
+        <v>1034.382596529673</v>
       </c>
       <c r="P22" t="n">
         <v>1178.599725559572</v>
       </c>
       <c r="Q22" t="n">
-        <v>1195.013110181717</v>
+        <v>1195.013110181716</v>
       </c>
       <c r="R22" t="n">
-        <v>1195.013110181717</v>
+        <v>1195.013110181716</v>
       </c>
       <c r="S22" t="n">
-        <v>1136.419658182694</v>
+        <v>1069.01893534457</v>
       </c>
       <c r="T22" t="n">
-        <v>1057.554387517024</v>
+        <v>990.1536646788998</v>
       </c>
       <c r="U22" t="n">
-        <v>914.4982250771765</v>
+        <v>847.0975022390525</v>
       </c>
       <c r="V22" t="n">
-        <v>659.8137368712896</v>
+        <v>738.5003912220244</v>
       </c>
       <c r="W22" t="n">
-        <v>449.0832211850638</v>
+        <v>595.1705983739225</v>
       </c>
       <c r="X22" t="n">
-        <v>221.0936702870465</v>
+        <v>513.268424664764</v>
       </c>
       <c r="Y22" t="n">
-        <v>146.3884683323752</v>
+        <v>438.5632227100926</v>
       </c>
     </row>
     <row r="23">
@@ -5969,46 +5969,46 @@
         <v>1210.216126455822</v>
       </c>
       <c r="D23" t="n">
-        <v>998.0378050379301</v>
+        <v>998.0378050379304</v>
       </c>
       <c r="E23" t="n">
-        <v>758.3369296285446</v>
+        <v>758.336929628545</v>
       </c>
       <c r="F23" t="n">
-        <v>493.4384020277957</v>
+        <v>493.4384020277962</v>
       </c>
       <c r="G23" t="n">
         <v>222.7909920329564</v>
       </c>
       <c r="H23" t="n">
-        <v>54.27035973545704</v>
+        <v>54.27035973545703</v>
       </c>
       <c r="I23" t="n">
-        <v>54.27035973545704</v>
+        <v>54.27035973545703</v>
       </c>
       <c r="J23" t="n">
-        <v>272.2740289956566</v>
+        <v>272.2740289956565</v>
       </c>
       <c r="K23" t="n">
-        <v>719.7498218429578</v>
+        <v>398.8458633975045</v>
       </c>
       <c r="L23" t="n">
-        <v>1327.159738928536</v>
+        <v>821.2141855045452</v>
       </c>
       <c r="M23" t="n">
-        <v>1580.630980476007</v>
+        <v>1068.662900938701</v>
       </c>
       <c r="N23" t="n">
-        <v>2252.226682202288</v>
+        <v>1324.729403667082</v>
       </c>
       <c r="O23" t="n">
-        <v>2480.687758290113</v>
+        <v>1930.182659205025</v>
       </c>
       <c r="P23" t="n">
-        <v>2641.173000238316</v>
+        <v>2409.248622242995</v>
       </c>
       <c r="Q23" t="n">
-        <v>2713.517986772852</v>
+        <v>2691.785449530837</v>
       </c>
       <c r="R23" t="n">
         <v>2713.517986772852</v>
@@ -6051,40 +6051,40 @@
         <v>635.7889439939843</v>
       </c>
       <c r="E24" t="n">
-        <v>476.5514889885287</v>
+        <v>476.5514889885288</v>
       </c>
       <c r="F24" t="n">
-        <v>330.0169310154137</v>
+        <v>330.0169310154138</v>
       </c>
       <c r="G24" t="n">
-        <v>192.7644021255558</v>
+        <v>192.7644021255559</v>
       </c>
       <c r="H24" t="n">
-        <v>93.67249878582659</v>
+        <v>93.6724987858266</v>
       </c>
       <c r="I24" t="n">
-        <v>54.27035973545704</v>
+        <v>54.27035973545703</v>
       </c>
       <c r="J24" t="n">
-        <v>65.5883470021768</v>
+        <v>190.4184719891815</v>
       </c>
       <c r="K24" t="n">
-        <v>424.9079993108671</v>
+        <v>549.7381242978718</v>
       </c>
       <c r="L24" t="n">
-        <v>969.4620109259765</v>
+        <v>1094.292135912981</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.259204043854</v>
+        <v>1320.692191042239</v>
       </c>
       <c r="N24" t="n">
-        <v>1902.854905770135</v>
+        <v>1567.493026872126</v>
       </c>
       <c r="O24" t="n">
-        <v>2106.409658898799</v>
+        <v>1898.433144040308</v>
       </c>
       <c r="P24" t="n">
-        <v>2565.725368698847</v>
+        <v>2357.748853840356</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.09147256687</v>
@@ -6121,49 +6121,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>405.0720639300583</v>
+        <v>119.5771733221951</v>
       </c>
       <c r="C25" t="n">
-        <v>382.2232581910101</v>
+        <v>96.728367583147</v>
       </c>
       <c r="D25" t="n">
-        <v>232.1066187786744</v>
+        <v>92.69910535967007</v>
       </c>
       <c r="E25" t="n">
-        <v>230.2809023851401</v>
+        <v>90.87338896613575</v>
       </c>
       <c r="F25" t="n">
-        <v>229.4783320760885</v>
+        <v>90.07081865708419</v>
       </c>
       <c r="G25" t="n">
-        <v>61.02982828773085</v>
+        <v>67.70969205758531</v>
       </c>
       <c r="H25" t="n">
-        <v>54.27035973545704</v>
+        <v>60.95022350531153</v>
       </c>
       <c r="I25" t="n">
-        <v>54.27035973545704</v>
+        <v>60.95022350531153</v>
       </c>
       <c r="J25" t="n">
-        <v>54.27035973545704</v>
+        <v>54.27035973545703</v>
       </c>
       <c r="K25" t="n">
         <v>173.3485719582308</v>
       </c>
       <c r="L25" t="n">
-        <v>381.2541210127769</v>
+        <v>381.2541210127768</v>
       </c>
       <c r="M25" t="n">
-        <v>610.8504950763175</v>
+        <v>610.8504950763174</v>
       </c>
       <c r="N25" t="n">
-        <v>840.422196959609</v>
+        <v>840.4221969596088</v>
       </c>
       <c r="O25" t="n">
-        <v>1036.452525391021</v>
+        <v>1036.45252539102</v>
       </c>
       <c r="P25" t="n">
-        <v>1180.669654420919</v>
+        <v>1180.669654420918</v>
       </c>
       <c r="Q25" t="n">
         <v>1197.083039043063</v>
@@ -6172,25 +6172,25 @@
         <v>1197.083039043063</v>
       </c>
       <c r="S25" t="n">
-        <v>1138.48958704404</v>
+        <v>992.4022098551809</v>
       </c>
       <c r="T25" t="n">
-        <v>1059.62431637837</v>
+        <v>767.4495620006522</v>
       </c>
       <c r="U25" t="n">
-        <v>916.5681539385231</v>
+        <v>624.3933995608049</v>
       </c>
       <c r="V25" t="n">
-        <v>740.5703200833709</v>
+        <v>515.7962885437769</v>
       </c>
       <c r="W25" t="n">
-        <v>597.240527235269</v>
+        <v>372.466495695675</v>
       </c>
       <c r="X25" t="n">
-        <v>515.3383535261105</v>
+        <v>290.5643219865165</v>
       </c>
       <c r="Y25" t="n">
-        <v>440.6331515714392</v>
+        <v>155.138260963576</v>
       </c>
     </row>
     <row r="26">
@@ -6200,55 +6200,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1866.521426036207</v>
+        <v>1866.521426036208</v>
       </c>
       <c r="C26" t="n">
-        <v>1578.735003217362</v>
+        <v>1578.735003217363</v>
       </c>
       <c r="D26" t="n">
-        <v>1301.645398732179</v>
+        <v>1301.64539873218</v>
       </c>
       <c r="E26" t="n">
-        <v>997.0332402555015</v>
+        <v>997.0332402555027</v>
       </c>
       <c r="F26" t="n">
-        <v>667.2234295874609</v>
+        <v>667.2234295874623</v>
       </c>
       <c r="G26" t="n">
-        <v>331.6647365253293</v>
+        <v>331.6647365253307</v>
       </c>
       <c r="H26" t="n">
-        <v>98.23282116053863</v>
+        <v>98.23282116053861</v>
       </c>
       <c r="I26" t="n">
-        <v>73.32476822280036</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J26" t="n">
-        <v>291.328437483</v>
+        <v>291.3284374829998</v>
       </c>
       <c r="K26" t="n">
-        <v>738.8042303303012</v>
+        <v>738.8042303303009</v>
       </c>
       <c r="L26" t="n">
-        <v>1346.21414741588</v>
+        <v>1272.93493599606</v>
       </c>
       <c r="M26" t="n">
-        <v>2038.68126100794</v>
+        <v>1965.402049588121</v>
       </c>
       <c r="N26" t="n">
-        <v>2727.721218904186</v>
+        <v>2654.442007484366</v>
       </c>
       <c r="O26" t="n">
-        <v>2956.182294992011</v>
+        <v>2882.903083572191</v>
       </c>
       <c r="P26" t="n">
-        <v>3435.248258029981</v>
+        <v>3361.969046610161</v>
       </c>
       <c r="Q26" t="n">
-        <v>3666.238411140018</v>
+        <v>3644.505873898003</v>
       </c>
       <c r="R26" t="n">
-        <v>3666.238411140018</v>
+        <v>3666.238411140017</v>
       </c>
       <c r="S26" t="n">
         <v>3599.243331747286</v>
@@ -6266,10 +6266,10 @@
         <v>2773.19807397252</v>
       </c>
       <c r="X26" t="n">
-        <v>2480.908409833006</v>
+        <v>2480.908409833007</v>
       </c>
       <c r="Y26" t="n">
-        <v>2171.945171978762</v>
+        <v>2171.945171978763</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>112.7269072731699</v>
       </c>
       <c r="I27" t="n">
-        <v>73.32476822280036</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J27" t="n">
-        <v>209.4728804765249</v>
+        <v>209.4728804765248</v>
       </c>
       <c r="K27" t="n">
-        <v>568.7925327852151</v>
+        <v>568.792532785215</v>
       </c>
       <c r="L27" t="n">
-        <v>1081.461098793262</v>
+        <v>1113.346544400324</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.86115392252</v>
+        <v>1467.131963569101</v>
       </c>
       <c r="N27" t="n">
-        <v>2029.210940352526</v>
+        <v>1713.932799398988</v>
       </c>
       <c r="O27" t="n">
-        <v>2232.765693481189</v>
+        <v>1917.487552527652</v>
       </c>
       <c r="P27" t="n">
         <v>2376.8032623277</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>559.9932447349534</v>
+        <v>559.9932447349531</v>
       </c>
       <c r="C28" t="n">
         <v>472.2331559286134</v>
@@ -6367,43 +6367,43 @@
         <v>403.2926106378447</v>
       </c>
       <c r="E28" t="n">
-        <v>336.5556111770187</v>
+        <v>336.5556111770188</v>
       </c>
       <c r="F28" t="n">
-        <v>270.8417578006754</v>
+        <v>270.8417578006755</v>
       </c>
       <c r="G28" t="n">
-        <v>183.5693481338848</v>
+        <v>183.5693481338849</v>
       </c>
       <c r="H28" t="n">
         <v>111.8985965143195</v>
       </c>
       <c r="I28" t="n">
-        <v>73.32476822280036</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J28" t="n">
-        <v>146.3385235905138</v>
+        <v>146.3385235905139</v>
       </c>
       <c r="K28" t="n">
-        <v>344.9774256618354</v>
+        <v>344.9774256618347</v>
       </c>
       <c r="L28" t="n">
-        <v>632.4436645649293</v>
+        <v>632.4436645649287</v>
       </c>
       <c r="M28" t="n">
-        <v>941.6007284770177</v>
+        <v>941.6007284770171</v>
       </c>
       <c r="N28" t="n">
-        <v>1250.733120208857</v>
+        <v>1250.733120208856</v>
       </c>
       <c r="O28" t="n">
-        <v>1526.324138488817</v>
+        <v>1526.324138488816</v>
       </c>
       <c r="P28" t="n">
         <v>1750.101957367262</v>
       </c>
       <c r="Q28" t="n">
-        <v>1846.076031837955</v>
+        <v>1846.076031837954</v>
       </c>
       <c r="R28" t="n">
         <v>1803.893761548168</v>
@@ -6412,22 +6412,22 @@
         <v>1680.389026481853</v>
       </c>
       <c r="T28" t="n">
-        <v>1536.612472748892</v>
+        <v>1536.612472748891</v>
       </c>
       <c r="U28" t="n">
-        <v>1328.645027241753</v>
+        <v>1328.645027241752</v>
       </c>
       <c r="V28" t="n">
-        <v>1155.136633157433</v>
+        <v>1155.136633157432</v>
       </c>
       <c r="W28" t="n">
-        <v>946.8955572420393</v>
+        <v>946.8955572420389</v>
       </c>
       <c r="X28" t="n">
-        <v>800.0821004655891</v>
+        <v>800.0821004655886</v>
       </c>
       <c r="Y28" t="n">
-        <v>660.465615443626</v>
+        <v>660.4656154436257</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6437,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1866.521426036206</v>
+        <v>1866.521426036207</v>
       </c>
       <c r="C29" t="n">
         <v>1578.735003217362</v>
       </c>
       <c r="D29" t="n">
-        <v>1301.645398732178</v>
+        <v>1301.645398732179</v>
       </c>
       <c r="E29" t="n">
-        <v>997.0332402555011</v>
+        <v>997.0332402555016</v>
       </c>
       <c r="F29" t="n">
-        <v>667.2234295874606</v>
+        <v>667.2234295874611</v>
       </c>
       <c r="G29" t="n">
-        <v>331.6647365253289</v>
+        <v>331.6647365253294</v>
       </c>
       <c r="H29" t="n">
-        <v>98.23282116053863</v>
+        <v>98.23282116053865</v>
       </c>
       <c r="I29" t="n">
-        <v>73.32476822280034</v>
+        <v>73.32476822280033</v>
       </c>
       <c r="J29" t="n">
-        <v>291.3284374829999</v>
+        <v>291.3284374829998</v>
       </c>
       <c r="K29" t="n">
-        <v>738.804230330301</v>
+        <v>738.8042303303009</v>
       </c>
       <c r="L29" t="n">
         <v>1346.214147415879</v>
       </c>
       <c r="M29" t="n">
-        <v>1820.334248133322</v>
+        <v>2021.383325305866</v>
       </c>
       <c r="N29" t="n">
-        <v>2509.374206029568</v>
+        <v>2277.449828034247</v>
       </c>
       <c r="O29" t="n">
-        <v>3114.827461567511</v>
+        <v>2882.903083572191</v>
       </c>
       <c r="P29" t="n">
-        <v>3593.893424605481</v>
+        <v>3361.96904661016</v>
       </c>
       <c r="Q29" t="n">
-        <v>3666.238411140017</v>
+        <v>3644.505873898002</v>
       </c>
       <c r="R29" t="n">
         <v>3666.238411140017</v>
@@ -6491,22 +6491,22 @@
         <v>3599.243331747286</v>
       </c>
       <c r="T29" t="n">
-        <v>3467.164797909962</v>
+        <v>3467.164797909961</v>
       </c>
       <c r="U29" t="n">
         <v>3294.67742834307</v>
       </c>
       <c r="V29" t="n">
-        <v>3044.790635121066</v>
+        <v>3044.790635121067</v>
       </c>
       <c r="W29" t="n">
-        <v>2773.198073972519</v>
+        <v>2773.19807397252</v>
       </c>
       <c r="X29" t="n">
         <v>2480.908409833006</v>
       </c>
       <c r="Y29" t="n">
-        <v>2171.945171978761</v>
+        <v>2171.945171978762</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>112.7269072731699</v>
       </c>
       <c r="I30" t="n">
-        <v>73.32476822280034</v>
+        <v>73.32476822280033</v>
       </c>
       <c r="J30" t="n">
-        <v>209.4728804765249</v>
+        <v>209.4728804765248</v>
       </c>
       <c r="K30" t="n">
-        <v>306.9719481427624</v>
+        <v>568.7925327852149</v>
       </c>
       <c r="L30" t="n">
-        <v>484.3940179074472</v>
+        <v>1113.346544400324</v>
       </c>
       <c r="M30" t="n">
-        <v>917.9374578385585</v>
+        <v>1339.746599529582</v>
       </c>
       <c r="N30" t="n">
-        <v>1639.287244268564</v>
+        <v>1586.547435359469</v>
       </c>
       <c r="O30" t="n">
-        <v>2232.76569348119</v>
+        <v>1917.487552527652</v>
       </c>
       <c r="P30" t="n">
         <v>2376.8032623277</v>
@@ -6595,52 +6595,52 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>559.9932447349536</v>
+        <v>559.993244734953</v>
       </c>
       <c r="C31" t="n">
-        <v>472.2331559286138</v>
+        <v>472.2331559286132</v>
       </c>
       <c r="D31" t="n">
-        <v>403.2926106378451</v>
+        <v>403.2926106378445</v>
       </c>
       <c r="E31" t="n">
-        <v>336.555611177019</v>
+        <v>336.5556111770185</v>
       </c>
       <c r="F31" t="n">
-        <v>270.8417578006757</v>
+        <v>270.8417578006752</v>
       </c>
       <c r="G31" t="n">
-        <v>183.5693481338851</v>
+        <v>183.5693481338845</v>
       </c>
       <c r="H31" t="n">
-        <v>111.8985965143195</v>
+        <v>111.898596514319</v>
       </c>
       <c r="I31" t="n">
-        <v>73.32476822280034</v>
+        <v>73.32476822280033</v>
       </c>
       <c r="J31" t="n">
-        <v>146.3385235905139</v>
+        <v>146.3385235905138</v>
       </c>
       <c r="K31" t="n">
-        <v>344.9774256618356</v>
+        <v>344.9774256618354</v>
       </c>
       <c r="L31" t="n">
-        <v>632.4436645649296</v>
+        <v>632.4436645649292</v>
       </c>
       <c r="M31" t="n">
-        <v>941.6007284770178</v>
+        <v>941.6007284770174</v>
       </c>
       <c r="N31" t="n">
         <v>1250.733120208857</v>
       </c>
       <c r="O31" t="n">
-        <v>1526.324138488817</v>
+        <v>1526.324138488816</v>
       </c>
       <c r="P31" t="n">
         <v>1750.101957367262</v>
       </c>
       <c r="Q31" t="n">
-        <v>1846.076031837955</v>
+        <v>1846.076031837954</v>
       </c>
       <c r="R31" t="n">
         <v>1803.893761548168</v>
@@ -6649,22 +6649,22 @@
         <v>1680.389026481853</v>
       </c>
       <c r="T31" t="n">
-        <v>1536.612472748892</v>
+        <v>1536.612472748891</v>
       </c>
       <c r="U31" t="n">
-        <v>1328.645027241753</v>
+        <v>1328.645027241752</v>
       </c>
       <c r="V31" t="n">
-        <v>1155.136633157433</v>
+        <v>1155.136633157432</v>
       </c>
       <c r="W31" t="n">
-        <v>946.8955572420393</v>
+        <v>946.8955572420389</v>
       </c>
       <c r="X31" t="n">
-        <v>800.0821004655892</v>
+        <v>800.0821004655886</v>
       </c>
       <c r="Y31" t="n">
-        <v>660.4656154436262</v>
+        <v>660.4656154436257</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1866.521426036206</v>
+        <v>1866.521426036208</v>
       </c>
       <c r="C32" t="n">
-        <v>1578.735003217362</v>
+        <v>1578.735003217363</v>
       </c>
       <c r="D32" t="n">
-        <v>1301.645398732178</v>
+        <v>1301.64539873218</v>
       </c>
       <c r="E32" t="n">
-        <v>997.0332402555014</v>
+        <v>997.0332402555027</v>
       </c>
       <c r="F32" t="n">
-        <v>667.2234295874609</v>
+        <v>667.2234295874623</v>
       </c>
       <c r="G32" t="n">
-        <v>331.6647365253293</v>
+        <v>331.6647365253307</v>
       </c>
       <c r="H32" t="n">
-        <v>98.23282116053866</v>
+        <v>98.23282116053862</v>
       </c>
       <c r="I32" t="n">
-        <v>73.32476822280036</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J32" t="n">
-        <v>291.3284374829999</v>
+        <v>291.3284374829998</v>
       </c>
       <c r="K32" t="n">
-        <v>498.7246802136693</v>
+        <v>738.8042303303009</v>
       </c>
       <c r="L32" t="n">
-        <v>1106.134597299248</v>
+        <v>1346.214147415879</v>
       </c>
       <c r="M32" t="n">
-        <v>1798.601710891308</v>
+        <v>1593.662862850035</v>
       </c>
       <c r="N32" t="n">
-        <v>2487.641668787554</v>
+        <v>2277.449828034248</v>
       </c>
       <c r="O32" t="n">
-        <v>3093.094924325497</v>
+        <v>2882.903083572191</v>
       </c>
       <c r="P32" t="n">
-        <v>3572.160887363467</v>
+        <v>3361.969046610161</v>
       </c>
       <c r="Q32" t="n">
-        <v>3644.505873898004</v>
+        <v>3644.505873898003</v>
       </c>
       <c r="R32" t="n">
-        <v>3666.238411140018</v>
+        <v>3666.238411140017</v>
       </c>
       <c r="S32" t="n">
-        <v>3599.243331747287</v>
+        <v>3599.243331747286</v>
       </c>
       <c r="T32" t="n">
-        <v>3467.164797909963</v>
+        <v>3467.164797909962</v>
       </c>
       <c r="U32" t="n">
         <v>3294.67742834307</v>
       </c>
       <c r="V32" t="n">
-        <v>3044.790635121066</v>
+        <v>3044.790635121067</v>
       </c>
       <c r="W32" t="n">
-        <v>2773.198073972519</v>
+        <v>2773.19807397252</v>
       </c>
       <c r="X32" t="n">
-        <v>2480.908409833006</v>
+        <v>2480.908409833007</v>
       </c>
       <c r="Y32" t="n">
-        <v>2171.945171978761</v>
+        <v>2171.945171978762</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>112.7269072731699</v>
       </c>
       <c r="I33" t="n">
-        <v>73.32476822280036</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J33" t="n">
-        <v>84.64275548952013</v>
+        <v>209.4728804765248</v>
       </c>
       <c r="K33" t="n">
-        <v>443.9624077982104</v>
+        <v>568.792532785215</v>
       </c>
       <c r="L33" t="n">
-        <v>988.5164194133198</v>
+        <v>1113.346544400324</v>
       </c>
       <c r="M33" t="n">
-        <v>1214.916474542578</v>
+        <v>1467.131963569101</v>
       </c>
       <c r="N33" t="n">
-        <v>1936.266260972583</v>
+        <v>1713.932799398988</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.821014101247</v>
+        <v>1917.487552527652</v>
       </c>
       <c r="P33" t="n">
         <v>2376.8032623277</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>559.9932447349528</v>
+        <v>559.9932447349531</v>
       </c>
       <c r="C34" t="n">
-        <v>472.2331559286129</v>
+        <v>472.2331559286134</v>
       </c>
       <c r="D34" t="n">
-        <v>403.2926106378442</v>
+        <v>403.2926106378447</v>
       </c>
       <c r="E34" t="n">
-        <v>336.5556111770181</v>
+        <v>336.5556111770187</v>
       </c>
       <c r="F34" t="n">
-        <v>270.8417578006748</v>
+        <v>270.8417578006755</v>
       </c>
       <c r="G34" t="n">
-        <v>183.5693481338842</v>
+        <v>183.5693481338849</v>
       </c>
       <c r="H34" t="n">
-        <v>111.8985965143196</v>
+        <v>111.8985965143194</v>
       </c>
       <c r="I34" t="n">
-        <v>73.32476822280036</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J34" t="n">
-        <v>146.3385235905138</v>
+        <v>146.3385235905139</v>
       </c>
       <c r="K34" t="n">
-        <v>344.9774256618355</v>
+        <v>344.9774256618356</v>
       </c>
       <c r="L34" t="n">
-        <v>632.4436645649293</v>
+        <v>632.4436645649296</v>
       </c>
       <c r="M34" t="n">
-        <v>941.6007284770178</v>
+        <v>941.6007284770179</v>
       </c>
       <c r="N34" t="n">
         <v>1250.733120208857</v>
@@ -6886,7 +6886,7 @@
         <v>1680.389026481853</v>
       </c>
       <c r="T34" t="n">
-        <v>1536.612472748892</v>
+        <v>1536.612472748891</v>
       </c>
       <c r="U34" t="n">
         <v>1328.645027241753</v>
@@ -6895,13 +6895,13 @@
         <v>1155.136633157433</v>
       </c>
       <c r="W34" t="n">
-        <v>946.8955572420391</v>
+        <v>946.8955572420392</v>
       </c>
       <c r="X34" t="n">
-        <v>800.0821004655888</v>
+        <v>800.082100465589</v>
       </c>
       <c r="Y34" t="n">
-        <v>660.4656154436254</v>
+        <v>660.4656154436257</v>
       </c>
     </row>
     <row r="35">
@@ -6914,52 +6914,52 @@
         <v>1866.521426036207</v>
       </c>
       <c r="C35" t="n">
-        <v>1578.735003217362</v>
+        <v>1578.735003217363</v>
       </c>
       <c r="D35" t="n">
-        <v>1301.645398732179</v>
+        <v>1301.64539873218</v>
       </c>
       <c r="E35" t="n">
-        <v>997.0332402555016</v>
+        <v>997.0332402555025</v>
       </c>
       <c r="F35" t="n">
-        <v>667.2234295874612</v>
+        <v>667.2234295874621</v>
       </c>
       <c r="G35" t="n">
-        <v>331.6647365253293</v>
+        <v>331.6647365253302</v>
       </c>
       <c r="H35" t="n">
-        <v>98.23282116053868</v>
+        <v>98.23282116053862</v>
       </c>
       <c r="I35" t="n">
-        <v>73.32476822280037</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J35" t="n">
-        <v>291.3284374829999</v>
+        <v>291.3284374829998</v>
       </c>
       <c r="K35" t="n">
-        <v>417.900271884848</v>
+        <v>738.8042303303009</v>
       </c>
       <c r="L35" t="n">
-        <v>1025.310188970426</v>
+        <v>1346.214147415879</v>
       </c>
       <c r="M35" t="n">
-        <v>1717.777302562487</v>
+        <v>2021.383325305867</v>
       </c>
       <c r="N35" t="n">
-        <v>2406.817260458733</v>
+        <v>2277.449828034248</v>
       </c>
       <c r="O35" t="n">
-        <v>2904.635620814207</v>
+        <v>2882.903083572191</v>
       </c>
       <c r="P35" t="n">
-        <v>3383.701583852177</v>
+        <v>3361.969046610161</v>
       </c>
       <c r="Q35" t="n">
-        <v>3666.238411140019</v>
+        <v>3644.505873898003</v>
       </c>
       <c r="R35" t="n">
-        <v>3666.238411140019</v>
+        <v>3666.238411140017</v>
       </c>
       <c r="S35" t="n">
         <v>3599.243331747286</v>
@@ -6971,13 +6971,13 @@
         <v>3294.67742834307</v>
       </c>
       <c r="V35" t="n">
-        <v>3044.790635121066</v>
+        <v>3044.790635121067</v>
       </c>
       <c r="W35" t="n">
-        <v>2773.198073972519</v>
+        <v>2773.19807397252</v>
       </c>
       <c r="X35" t="n">
-        <v>2480.908409833006</v>
+        <v>2480.908409833007</v>
       </c>
       <c r="Y35" t="n">
         <v>2171.945171978762</v>
@@ -7005,34 +7005,34 @@
         <v>349.071339502757</v>
       </c>
       <c r="G36" t="n">
-        <v>211.8188106128992</v>
+        <v>211.8188106128991</v>
       </c>
       <c r="H36" t="n">
         <v>112.7269072731699</v>
       </c>
       <c r="I36" t="n">
-        <v>73.32476822280037</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J36" t="n">
-        <v>209.4728804765249</v>
+        <v>209.4728804765248</v>
       </c>
       <c r="K36" t="n">
-        <v>306.9719481427624</v>
+        <v>306.9719481427622</v>
       </c>
       <c r="L36" t="n">
-        <v>484.3940179074472</v>
+        <v>850.8082123558812</v>
       </c>
       <c r="M36" t="n">
-        <v>810.6358317435114</v>
+        <v>1077.208267485139</v>
       </c>
       <c r="N36" t="n">
-        <v>1531.985618173517</v>
+        <v>1324.009103315026</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.464067386143</v>
+        <v>1917.487552527652</v>
       </c>
       <c r="P36" t="n">
-        <v>2584.779777186191</v>
+        <v>2376.8032623277</v>
       </c>
       <c r="Q36" t="n">
         <v>2631.145881054214</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>559.9932447349537</v>
+        <v>559.9932447349531</v>
       </c>
       <c r="C37" t="n">
-        <v>472.2331559286138</v>
+        <v>472.2331559286134</v>
       </c>
       <c r="D37" t="n">
-        <v>403.2926106378451</v>
+        <v>403.2926106378447</v>
       </c>
       <c r="E37" t="n">
-        <v>336.555611177019</v>
+        <v>336.5556111770188</v>
       </c>
       <c r="F37" t="n">
-        <v>270.8417578006757</v>
+        <v>270.8417578006755</v>
       </c>
       <c r="G37" t="n">
-        <v>183.5693481338851</v>
+        <v>183.5693481338849</v>
       </c>
       <c r="H37" t="n">
-        <v>111.8985965143196</v>
+        <v>111.8985965143195</v>
       </c>
       <c r="I37" t="n">
-        <v>73.32476822280037</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J37" t="n">
-        <v>146.3385235905138</v>
+        <v>146.3385235905139</v>
       </c>
       <c r="K37" t="n">
         <v>344.9774256618355</v>
       </c>
       <c r="L37" t="n">
-        <v>632.4436645649293</v>
+        <v>632.4436645649295</v>
       </c>
       <c r="M37" t="n">
-        <v>941.6007284770178</v>
+        <v>941.600728477018</v>
       </c>
       <c r="N37" t="n">
         <v>1250.733120208857</v>
@@ -7111,34 +7111,34 @@
         <v>1526.324138488817</v>
       </c>
       <c r="P37" t="n">
-        <v>1750.101957367263</v>
+        <v>1750.101957367262</v>
       </c>
       <c r="Q37" t="n">
-        <v>1846.076031837955</v>
+        <v>1846.076031837954</v>
       </c>
       <c r="R37" t="n">
         <v>1803.893761548168</v>
       </c>
       <c r="S37" t="n">
-        <v>1680.389026481854</v>
+        <v>1680.389026481853</v>
       </c>
       <c r="T37" t="n">
-        <v>1536.612472748892</v>
+        <v>1536.612472748891</v>
       </c>
       <c r="U37" t="n">
-        <v>1328.645027241753</v>
+        <v>1328.645027241752</v>
       </c>
       <c r="V37" t="n">
-        <v>1155.136633157433</v>
+        <v>1155.136633157432</v>
       </c>
       <c r="W37" t="n">
-        <v>946.8955572420397</v>
+        <v>946.8955572420389</v>
       </c>
       <c r="X37" t="n">
-        <v>800.0821004655894</v>
+        <v>800.0821004655886</v>
       </c>
       <c r="Y37" t="n">
-        <v>660.4656154436263</v>
+        <v>660.4656154436257</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1866.521426036208</v>
+        <v>1866.521426036207</v>
       </c>
       <c r="C38" t="n">
-        <v>1578.735003217364</v>
+        <v>1578.735003217363</v>
       </c>
       <c r="D38" t="n">
-        <v>1301.64539873218</v>
+        <v>1301.645398732179</v>
       </c>
       <c r="E38" t="n">
-        <v>997.0332402555028</v>
+        <v>997.0332402555023</v>
       </c>
       <c r="F38" t="n">
-        <v>667.2234295874623</v>
+        <v>667.2234295874619</v>
       </c>
       <c r="G38" t="n">
-        <v>331.6647365253307</v>
+        <v>331.6647365253296</v>
       </c>
       <c r="H38" t="n">
-        <v>98.23282116053866</v>
+        <v>98.23282116053862</v>
       </c>
       <c r="I38" t="n">
-        <v>73.32476822280036</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J38" t="n">
-        <v>291.3284374829999</v>
+        <v>291.3284374829998</v>
       </c>
       <c r="K38" t="n">
-        <v>738.804230330301</v>
+        <v>738.8042303303009</v>
       </c>
       <c r="L38" t="n">
-        <v>932.7295450109334</v>
+        <v>1346.214147415879</v>
       </c>
       <c r="M38" t="n">
-        <v>1610.142407380017</v>
+        <v>2038.68126100794</v>
       </c>
       <c r="N38" t="n">
-        <v>2299.182365276262</v>
+        <v>2299.182365276263</v>
       </c>
       <c r="O38" t="n">
         <v>2904.635620814206</v>
@@ -7193,31 +7193,31 @@
         <v>3383.701583852176</v>
       </c>
       <c r="Q38" t="n">
-        <v>3666.238411140018</v>
+        <v>3666.238411140017</v>
       </c>
       <c r="R38" t="n">
-        <v>3666.238411140018</v>
+        <v>3666.238411140017</v>
       </c>
       <c r="S38" t="n">
-        <v>3599.243331747287</v>
+        <v>3599.243331747286</v>
       </c>
       <c r="T38" t="n">
-        <v>3467.164797909963</v>
+        <v>3467.164797909962</v>
       </c>
       <c r="U38" t="n">
-        <v>3294.677428343071</v>
+        <v>3294.67742834307</v>
       </c>
       <c r="V38" t="n">
-        <v>3044.790635121068</v>
+        <v>3044.790635121067</v>
       </c>
       <c r="W38" t="n">
         <v>2773.19807397252</v>
       </c>
       <c r="X38" t="n">
-        <v>2480.908409833008</v>
+        <v>2480.908409833007</v>
       </c>
       <c r="Y38" t="n">
-        <v>2171.945171978763</v>
+        <v>2171.945171978762</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>112.7269072731699</v>
       </c>
       <c r="I39" t="n">
-        <v>73.32476822280036</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J39" t="n">
-        <v>84.64275548952013</v>
+        <v>209.4728804765248</v>
       </c>
       <c r="K39" t="n">
-        <v>283.8355889241443</v>
+        <v>568.792532785215</v>
       </c>
       <c r="L39" t="n">
-        <v>828.3896005392537</v>
+        <v>1113.346544400324</v>
       </c>
       <c r="M39" t="n">
-        <v>1515.837668781011</v>
+        <v>1339.746599529582</v>
       </c>
       <c r="N39" t="n">
-        <v>2237.187455211017</v>
+        <v>1586.547435359469</v>
       </c>
       <c r="O39" t="n">
-        <v>2440.74220833968</v>
+        <v>1917.487552527652</v>
       </c>
       <c r="P39" t="n">
-        <v>2584.779777186191</v>
+        <v>2376.8032623277</v>
       </c>
       <c r="Q39" t="n">
         <v>2631.145881054214</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>559.9932447349537</v>
+        <v>559.9932447349531</v>
       </c>
       <c r="C40" t="n">
-        <v>472.2331559286138</v>
+        <v>472.2331559286134</v>
       </c>
       <c r="D40" t="n">
-        <v>403.2926106378451</v>
+        <v>403.2926106378447</v>
       </c>
       <c r="E40" t="n">
-        <v>336.555611177019</v>
+        <v>336.5556111770188</v>
       </c>
       <c r="F40" t="n">
-        <v>270.8417578006757</v>
+        <v>270.8417578006755</v>
       </c>
       <c r="G40" t="n">
-        <v>183.5693481338851</v>
+        <v>183.5693481338849</v>
       </c>
       <c r="H40" t="n">
-        <v>111.8985965143196</v>
+        <v>111.8985965143195</v>
       </c>
       <c r="I40" t="n">
-        <v>73.32476822280036</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J40" t="n">
-        <v>146.3385235905138</v>
+        <v>146.3385235905139</v>
       </c>
       <c r="K40" t="n">
-        <v>344.9774256618357</v>
+        <v>344.9774256618355</v>
       </c>
       <c r="L40" t="n">
-        <v>632.4436645649296</v>
+        <v>632.4436645649295</v>
       </c>
       <c r="M40" t="n">
         <v>941.600728477018</v>
       </c>
       <c r="N40" t="n">
-        <v>1250.733120208857</v>
+        <v>1250.733120208856</v>
       </c>
       <c r="O40" t="n">
-        <v>1526.324138488817</v>
+        <v>1526.324138488816</v>
       </c>
       <c r="P40" t="n">
-        <v>1750.101957367263</v>
+        <v>1750.101957367262</v>
       </c>
       <c r="Q40" t="n">
-        <v>1846.076031837955</v>
+        <v>1846.076031837954</v>
       </c>
       <c r="R40" t="n">
         <v>1803.893761548168</v>
       </c>
       <c r="S40" t="n">
-        <v>1680.389026481854</v>
+        <v>1680.389026481853</v>
       </c>
       <c r="T40" t="n">
-        <v>1536.612472748892</v>
+        <v>1536.612472748891</v>
       </c>
       <c r="U40" t="n">
-        <v>1328.645027241753</v>
+        <v>1328.645027241752</v>
       </c>
       <c r="V40" t="n">
-        <v>1155.136633157433</v>
+        <v>1155.136633157432</v>
       </c>
       <c r="W40" t="n">
-        <v>946.8955572420397</v>
+        <v>946.8955572420389</v>
       </c>
       <c r="X40" t="n">
-        <v>800.0821004655894</v>
+        <v>800.0821004655886</v>
       </c>
       <c r="Y40" t="n">
-        <v>660.4656154436263</v>
+        <v>660.4656154436257</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1866.521426036207</v>
+        <v>1866.521426036208</v>
       </c>
       <c r="C41" t="n">
         <v>1578.735003217363</v>
@@ -7403,22 +7403,22 @@
         <v>331.6647365253298</v>
       </c>
       <c r="H41" t="n">
-        <v>98.23282116053866</v>
+        <v>98.23282116053869</v>
       </c>
       <c r="I41" t="n">
-        <v>73.32476822280037</v>
+        <v>73.32476822280036</v>
       </c>
       <c r="J41" t="n">
-        <v>291.3284374829999</v>
+        <v>291.3284374829998</v>
       </c>
       <c r="K41" t="n">
-        <v>738.804230330301</v>
+        <v>738.8042303303009</v>
       </c>
       <c r="L41" t="n">
         <v>1346.214147415879</v>
       </c>
       <c r="M41" t="n">
-        <v>2038.68126100794</v>
+        <v>1610.142407380017</v>
       </c>
       <c r="N41" t="n">
         <v>2299.182365276263</v>
@@ -7439,7 +7439,7 @@
         <v>3599.243331747287</v>
       </c>
       <c r="T41" t="n">
-        <v>3467.164797909962</v>
+        <v>3467.164797909963</v>
       </c>
       <c r="U41" t="n">
         <v>3294.67742834307</v>
@@ -7454,7 +7454,7 @@
         <v>2480.908409833007</v>
       </c>
       <c r="Y41" t="n">
-        <v>2171.945171978762</v>
+        <v>2171.945171978763</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>112.7269072731699</v>
       </c>
       <c r="I42" t="n">
-        <v>73.32476822280037</v>
+        <v>73.32476822280036</v>
       </c>
       <c r="J42" t="n">
-        <v>168.2966181235438</v>
+        <v>209.4728804765248</v>
       </c>
       <c r="K42" t="n">
-        <v>527.616270432234</v>
+        <v>568.792532785215</v>
       </c>
       <c r="L42" t="n">
-        <v>705.0383401969189</v>
+        <v>1113.346544400324</v>
       </c>
       <c r="M42" t="n">
-        <v>1392.486408438677</v>
+        <v>1467.131963569101</v>
       </c>
       <c r="N42" t="n">
-        <v>1639.287244268564</v>
+        <v>1713.932799398988</v>
       </c>
       <c r="O42" t="n">
-        <v>2232.76569348119</v>
+        <v>1917.487552527652</v>
       </c>
       <c r="P42" t="n">
         <v>2376.8032623277</v>
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>559.9932447349536</v>
+        <v>559.9932447349531</v>
       </c>
       <c r="C43" t="n">
-        <v>472.2331559286137</v>
+        <v>472.2331559286133</v>
       </c>
       <c r="D43" t="n">
-        <v>403.292610637845</v>
+        <v>403.2926106378446</v>
       </c>
       <c r="E43" t="n">
-        <v>336.5556111770189</v>
+        <v>336.5556111770186</v>
       </c>
       <c r="F43" t="n">
-        <v>270.8417578006756</v>
+        <v>270.8417578006753</v>
       </c>
       <c r="G43" t="n">
-        <v>183.569348133885</v>
+        <v>183.5693481338847</v>
       </c>
       <c r="H43" t="n">
-        <v>111.8985965143195</v>
+        <v>111.8985965143191</v>
       </c>
       <c r="I43" t="n">
-        <v>73.32476822280037</v>
+        <v>73.32476822280036</v>
       </c>
       <c r="J43" t="n">
         <v>146.3385235905138</v>
       </c>
       <c r="K43" t="n">
-        <v>344.9774256618355</v>
+        <v>344.9774256618354</v>
       </c>
       <c r="L43" t="n">
-        <v>632.4436645649293</v>
+        <v>632.4436645649292</v>
       </c>
       <c r="M43" t="n">
-        <v>941.6007284770178</v>
+        <v>941.6007284770176</v>
       </c>
       <c r="N43" t="n">
         <v>1250.733120208857</v>
       </c>
       <c r="O43" t="n">
-        <v>1526.324138488817</v>
+        <v>1526.324138488816</v>
       </c>
       <c r="P43" t="n">
-        <v>1750.101957367263</v>
+        <v>1750.101957367262</v>
       </c>
       <c r="Q43" t="n">
         <v>1846.076031837955</v>
@@ -7594,7 +7594,7 @@
         <v>1803.893761548168</v>
       </c>
       <c r="S43" t="n">
-        <v>1680.389026481854</v>
+        <v>1680.389026481853</v>
       </c>
       <c r="T43" t="n">
         <v>1536.612472748892</v>
@@ -7606,13 +7606,13 @@
         <v>1155.136633157433</v>
       </c>
       <c r="W43" t="n">
-        <v>946.8955572420396</v>
+        <v>946.8955572420391</v>
       </c>
       <c r="X43" t="n">
-        <v>800.0821004655893</v>
+        <v>800.0821004655888</v>
       </c>
       <c r="Y43" t="n">
-        <v>660.4656154436262</v>
+        <v>660.4656154436258</v>
       </c>
     </row>
     <row r="44">
@@ -7640,25 +7640,25 @@
         <v>331.6647365253298</v>
       </c>
       <c r="H44" t="n">
-        <v>98.23282116053866</v>
+        <v>98.23282116053871</v>
       </c>
       <c r="I44" t="n">
         <v>73.32476822280037</v>
       </c>
       <c r="J44" t="n">
-        <v>218.0492260631808</v>
+        <v>291.3284374829999</v>
       </c>
       <c r="K44" t="n">
-        <v>665.5250189104819</v>
+        <v>738.8042303303009</v>
       </c>
       <c r="L44" t="n">
-        <v>1272.93493599606</v>
+        <v>1346.214147415879</v>
       </c>
       <c r="M44" t="n">
-        <v>1965.402049588121</v>
+        <v>1593.662862850035</v>
       </c>
       <c r="N44" t="n">
-        <v>2654.442007484367</v>
+        <v>2277.449828034249</v>
       </c>
       <c r="O44" t="n">
         <v>2882.903083572192</v>
@@ -7725,22 +7725,22 @@
         <v>73.32476822280037</v>
       </c>
       <c r="J45" t="n">
-        <v>209.4728804765249</v>
+        <v>84.64275548952008</v>
       </c>
       <c r="K45" t="n">
-        <v>568.7925327852151</v>
+        <v>182.1418231557575</v>
       </c>
       <c r="L45" t="n">
-        <v>1113.346544400325</v>
+        <v>726.6958347708668</v>
       </c>
       <c r="M45" t="n">
-        <v>1339.746599529582</v>
+        <v>1414.143903012624</v>
       </c>
       <c r="N45" t="n">
-        <v>1847.263759127055</v>
+        <v>1660.944738842511</v>
       </c>
       <c r="O45" t="n">
-        <v>2440.74220833968</v>
+        <v>2254.423188055137</v>
       </c>
       <c r="P45" t="n">
         <v>2584.779777186191</v>
@@ -7804,16 +7804,16 @@
         <v>73.32476822280037</v>
       </c>
       <c r="J46" t="n">
-        <v>146.3385235905139</v>
+        <v>146.3385235905138</v>
       </c>
       <c r="K46" t="n">
         <v>344.9774256618355</v>
       </c>
       <c r="L46" t="n">
-        <v>632.4436645649296</v>
+        <v>632.4436645649293</v>
       </c>
       <c r="M46" t="n">
-        <v>941.600728477018</v>
+        <v>941.6007284770178</v>
       </c>
       <c r="N46" t="n">
         <v>1250.733120208857</v>
@@ -8699,19 +8699,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>393.8523528674101</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>347.167660577215</v>
+        <v>184.9542567930228</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>43.76436205276613</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,25 +8766,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>72.3879217147261</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>423.8184615533931</v>
+        <v>43.92324116750171</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>403.2116123608383</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>92.24492994778782</v>
+        <v>128.2994881014423</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>402.5571885181421</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>43.76436205276613</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,22 +9009,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>315.7273986509808</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>403.2116123608383</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>96.30081783102389</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,16 +9164,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>106.5424808460442</v>
       </c>
       <c r="L17" t="n">
-        <v>349.5143649768967</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>402.5571885181423</v>
       </c>
       <c r="N17" t="n">
-        <v>393.8523528674099</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9182,10 +9182,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>43.76436205276613</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,13 +9246,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>423.8184615533931</v>
+        <v>128.6720848884028</v>
       </c>
       <c r="N18" t="n">
-        <v>75.69396863846762</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>238.5896807470708</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>402.5571885181421</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>184.9542567930228</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>43.76436205276613</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>423.8184615533931</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>403.2116123608381</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>94.64730436253615</v>
+        <v>128.6720848884028</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9638,28 +9638,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>230.7505125519278</v>
       </c>
       <c r="M23" t="n">
-        <v>6.083359710418762</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>419.7264636342422</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>43.76436205276613</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9723,19 +9723,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>35.7546848369899</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>429.0857231276702</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>128.6720848884028</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>343.6418090758859</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9893,10 +9893,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>160.2476430055558</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>43.7643620527661</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,19 +9957,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>338.6328244882446</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>128.672084888403</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10118,10 +10118,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>228.9609952356427</v>
+        <v>432.040871167506</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10130,10 +10130,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>43.76436205276613</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,22 +10191,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>209.2357422240944</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>128.6720848884033</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10349,16 +10349,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>81.64081649375893</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>432.040871167507</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10434,16 +10434,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>128.672084888403</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>93.88351452519473</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10586,19 +10586,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>432.040871167507</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>272.0780649168166</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>43.76436205276613</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,13 +10668,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.1153479277114</v>
       </c>
       <c r="M36" t="n">
-        <v>100.8502613200064</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10826,13 +10826,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>434.3072191261888</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>4.479395494891037</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>43.76436205276613</v>
+        <v>43.76436205276619</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>102.7209755236229</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>128.6720848884033</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,10 +11066,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>16.64600457573951</v>
       </c>
       <c r="N41" t="n">
-        <v>4.479395494890412</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>43.76436205276613</v>
+        <v>43.76436205276619</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,25 +11136,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>84.49885114547844</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>128.672084888403</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>95.07720969750892</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11303,13 +11303,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>432.0408711675079</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11373,25 +11373,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>263.3498219874593</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>188.2010305904474</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>113.8090246670633</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>301.0107215343888</v>
       </c>
       <c r="D11" t="n">
-        <v>290.4208713840642</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>317.668199835643</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>342.6138755050927</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>40.7611353520935</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>186.8646588149559</v>
       </c>
       <c r="V11" t="n">
-        <v>145.5803850733839</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>284.9787984807942</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.9757684194349</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>115.5698099453185</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>81.91422037874825</v>
       </c>
       <c r="D13" t="n">
-        <v>84.35330278159357</v>
+        <v>84.35330278159363</v>
       </c>
       <c r="E13" t="n">
-        <v>82.17179240995038</v>
+        <v>82.17179240995044</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>81.15887778631252</v>
       </c>
       <c r="G13" t="n">
-        <v>47.50328821974083</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>54.29025295233657</v>
+        <v>54.29025295233664</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>301.0107215343888</v>
       </c>
       <c r="D14" t="n">
         <v>290.4208713840642</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>8.250333016209481</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>247.1997591548758</v>
+        <v>166.0020287880915</v>
       </c>
       <c r="I14" t="n">
-        <v>40.76113535209353</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.42729154253638</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>146.8599114426837</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>186.8646588149559</v>
       </c>
       <c r="V14" t="n">
-        <v>263.4900882335161</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.9757684194348</v>
       </c>
     </row>
     <row r="15">
@@ -23665,7 +23665,7 @@
         <v>81.15887778631246</v>
       </c>
       <c r="G16" t="n">
-        <v>102.5018485138553</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>33.70262481722824</v>
+        <v>136.2044733310843</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23783,10 +23783,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>66.49557826233234</v>
+        <v>66.49557826233233</v>
       </c>
       <c r="U17" t="n">
-        <v>33.91667080159047</v>
+        <v>33.91667080158943</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>2.062958362184986</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>100.4122490639221</v>
+        <v>98.34929070173737</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>81927.63387170385</v>
+      </c>
+      <c r="C2" t="n">
         <v>81927.63387170383</v>
       </c>
-      <c r="C2" t="n">
-        <v>81927.63387170382</v>
-      </c>
       <c r="D2" t="n">
-        <v>81927.63387170383</v>
+        <v>81927.6338717038</v>
       </c>
       <c r="E2" t="n">
+        <v>71103.30328571705</v>
+      </c>
+      <c r="F2" t="n">
         <v>71103.30328571703</v>
-      </c>
-      <c r="F2" t="n">
-        <v>71103.30328571706</v>
       </c>
       <c r="G2" t="n">
         <v>81304.89548387946</v>
       </c>
       <c r="H2" t="n">
-        <v>81304.89548387949</v>
+        <v>81304.89548387956</v>
       </c>
       <c r="I2" t="n">
-        <v>82104.17698642827</v>
+        <v>82104.17698642833</v>
       </c>
       <c r="J2" t="n">
-        <v>82104.17698642827</v>
+        <v>82104.17698642833</v>
       </c>
       <c r="K2" t="n">
         <v>82104.17698642833</v>
@@ -26347,13 +26347,13 @@
         <v>82104.17698642836</v>
       </c>
       <c r="N2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.17698642839</v>
       </c>
       <c r="O2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.17698642833</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.17698642833</v>
       </c>
     </row>
     <row r="3">
@@ -26372,28 +26372,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>792873.2514315099</v>
+        <v>792873.2514315096</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.80213202536106e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>64291.4665442811</v>
+        <v>64291.46654428112</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6880.469409226767</v>
+        <v>6880.469409226706</v>
       </c>
       <c r="J3" t="n">
-        <v>62318.39567828069</v>
+        <v>62318.39567828066</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>64291.46654428109</v>
+        <v>64291.46654428116</v>
       </c>
       <c r="M3" t="n">
         <v>162606.9521943979</v>
@@ -26427,37 +26427,37 @@
         <v>131476.9821979759</v>
       </c>
       <c r="F4" t="n">
-        <v>131476.9821979759</v>
+        <v>131476.982197976</v>
       </c>
       <c r="G4" t="n">
-        <v>189547.7028295031</v>
+        <v>189547.7028295032</v>
       </c>
       <c r="H4" t="n">
-        <v>189547.7028295031</v>
+        <v>189547.7028295032</v>
       </c>
       <c r="I4" t="n">
         <v>192414.2210230131</v>
       </c>
       <c r="J4" t="n">
-        <v>177002.7601002273</v>
+        <v>177002.7601002274</v>
       </c>
       <c r="K4" t="n">
         <v>177002.7601002273</v>
       </c>
       <c r="L4" t="n">
-        <v>177002.7601002273</v>
+        <v>177002.7601002274</v>
       </c>
       <c r="M4" t="n">
-        <v>177002.7601002273</v>
+        <v>177002.7601002274</v>
       </c>
       <c r="N4" t="n">
-        <v>177002.7601002273</v>
+        <v>177002.7601002274</v>
       </c>
       <c r="O4" t="n">
         <v>177002.7601002273</v>
       </c>
       <c r="P4" t="n">
-        <v>177002.7601002273</v>
+        <v>177002.7601002274</v>
       </c>
     </row>
     <row r="5">
@@ -26491,25 +26491,25 @@
         <v>68236.91724650885</v>
       </c>
       <c r="J5" t="n">
+        <v>77315.81130726746</v>
+      </c>
+      <c r="K5" t="n">
+        <v>77315.81130726745</v>
+      </c>
+      <c r="L5" t="n">
+        <v>77315.81130726746</v>
+      </c>
+      <c r="M5" t="n">
+        <v>77315.81130726746</v>
+      </c>
+      <c r="N5" t="n">
+        <v>77315.81130726746</v>
+      </c>
+      <c r="O5" t="n">
         <v>77315.81130726748</v>
       </c>
-      <c r="K5" t="n">
-        <v>77315.81130726746</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="P5" t="n">
         <v>77315.81130726748</v>
-      </c>
-      <c r="M5" t="n">
-        <v>77315.81130726749</v>
-      </c>
-      <c r="N5" t="n">
-        <v>77315.81130726748</v>
-      </c>
-      <c r="O5" t="n">
-        <v>77315.81130726749</v>
-      </c>
-      <c r="P5" t="n">
-        <v>77315.81130726749</v>
       </c>
     </row>
     <row r="6">
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-371847.7350178274</v>
+        <v>-371852.1485956955</v>
       </c>
       <c r="C6" t="n">
-        <v>-371847.7350178274</v>
+        <v>-371852.1485956956</v>
       </c>
       <c r="D6" t="n">
-        <v>-371847.7350178274</v>
+        <v>-371852.1485956956</v>
       </c>
       <c r="E6" t="n">
-        <v>-913154.5525295153</v>
+        <v>-913429.5743720329</v>
       </c>
       <c r="F6" t="n">
-        <v>-120281.3010980054</v>
+        <v>-120556.3229405233</v>
       </c>
       <c r="G6" t="n">
-        <v>-239198.0452017903</v>
+        <v>-239218.027239354</v>
       </c>
       <c r="H6" t="n">
-        <v>-174906.5786575091</v>
+        <v>-174926.5606950728</v>
       </c>
       <c r="I6" t="n">
         <v>-185427.4306923204</v>
@@ -26549,19 +26549,19 @@
         <v>-172214.3944210664</v>
       </c>
       <c r="L6" t="n">
-        <v>-236505.8609653476</v>
+        <v>-236505.8609653478</v>
       </c>
       <c r="M6" t="n">
         <v>-334821.3466154644</v>
       </c>
       <c r="N6" t="n">
-        <v>-172214.3944210664</v>
+        <v>-172214.3944210665</v>
       </c>
       <c r="O6" t="n">
         <v>-172214.3944210664</v>
       </c>
       <c r="P6" t="n">
-        <v>-172214.3944210664</v>
+        <v>-172214.3944210665</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="F2" t="n">
         <v>64.26217023661879</v>
@@ -26707,19 +26707,19 @@
         <v>144.6265034169702</v>
       </c>
       <c r="J2" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="K2" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="L2" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="M2" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="N2" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="O2" t="n">
         <v>80.36433318035137</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>680.4054280642315</v>
+        <v>680.4054280642313</v>
       </c>
       <c r="F3" t="n">
-        <v>680.4054280642315</v>
+        <v>680.4054280642313</v>
       </c>
       <c r="G3" t="n">
-        <v>680.4054280642315</v>
+        <v>680.4054280642313</v>
       </c>
       <c r="H3" t="n">
-        <v>680.4054280642315</v>
+        <v>680.4054280642313</v>
       </c>
       <c r="I3" t="n">
-        <v>680.4054280642315</v>
+        <v>680.4054280642313</v>
       </c>
       <c r="J3" t="n">
-        <v>680.4054280642316</v>
+        <v>680.4054280642313</v>
       </c>
       <c r="K3" t="n">
-        <v>680.4054280642315</v>
+        <v>680.4054280642313</v>
       </c>
       <c r="L3" t="n">
-        <v>680.4054280642315</v>
+        <v>680.4054280642313</v>
       </c>
       <c r="M3" t="n">
-        <v>680.4054280642315</v>
+        <v>680.4054280642313</v>
       </c>
       <c r="N3" t="n">
-        <v>680.4054280642315</v>
+        <v>680.4054280642313</v>
       </c>
       <c r="O3" t="n">
-        <v>680.4054280642315</v>
+        <v>680.4054280642313</v>
       </c>
       <c r="P3" t="n">
-        <v>680.4054280642315</v>
+        <v>680.4054280642313</v>
       </c>
     </row>
     <row r="4">
@@ -26799,34 +26799,34 @@
         <v>652.505385926381</v>
       </c>
       <c r="F4" t="n">
-        <v>652.5053859263809</v>
+        <v>652.505385926381</v>
       </c>
       <c r="G4" t="n">
         <v>652.5053859263809</v>
       </c>
       <c r="H4" t="n">
-        <v>652.5053859263809</v>
+        <v>652.505385926381</v>
       </c>
       <c r="I4" t="n">
-        <v>678.379496693213</v>
+        <v>678.3794966932129</v>
       </c>
       <c r="J4" t="n">
+        <v>916.5596027850042</v>
+      </c>
+      <c r="K4" t="n">
+        <v>916.5596027850041</v>
+      </c>
+      <c r="L4" t="n">
+        <v>916.5596027850042</v>
+      </c>
+      <c r="M4" t="n">
+        <v>916.5596027850044</v>
+      </c>
+      <c r="N4" t="n">
+        <v>916.5596027850044</v>
+      </c>
+      <c r="O4" t="n">
         <v>916.5596027850045</v>
-      </c>
-      <c r="K4" t="n">
-        <v>916.5596027850044</v>
-      </c>
-      <c r="L4" t="n">
-        <v>916.5596027850045</v>
-      </c>
-      <c r="M4" t="n">
-        <v>916.5596027850047</v>
-      </c>
-      <c r="N4" t="n">
-        <v>916.5596027850045</v>
-      </c>
-      <c r="O4" t="n">
-        <v>916.5596027850046</v>
       </c>
       <c r="P4" t="n">
         <v>916.5596027850046</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>80.36433318035138</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>680.4054280642315</v>
+        <v>680.4054280642313</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>25.87411076683213</v>
+        <v>25.8741107668319</v>
       </c>
       <c r="J4" t="n">
-        <v>238.1801060917915</v>
+        <v>238.1801060917913</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>652.5053859263812</v>
+        <v>652.5053859263811</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>80.36433318035138</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="C11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="D11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="E11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="F11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="G11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="H11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="I11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="T11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="U11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="V11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="W11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="X11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="Y11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="C13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="D13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="E13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="F13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="G13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="H13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="I13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="J13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="K13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="L13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="M13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="N13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="O13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="P13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="R13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="S13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="T13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="U13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="V13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="W13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="X13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="Y13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
     </row>
     <row r="14">
@@ -28722,7 +28722,7 @@
         <v>144.6265034169702</v>
       </c>
       <c r="C19" t="n">
-        <v>144.6265034169702</v>
+        <v>62.01113028965352</v>
       </c>
       <c r="D19" t="n">
         <v>144.6265034169702</v>
@@ -28743,7 +28743,7 @@
         <v>118.5524231889554</v>
       </c>
       <c r="J19" t="n">
-        <v>6.613065132155924</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.1247807672402</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>144.6265034169702</v>
       </c>
       <c r="T19" t="n">
-        <v>77.89978780722751</v>
+        <v>144.6265034169702</v>
       </c>
       <c r="U19" t="n">
         <v>144.6265034169702</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>144.6265034169702</v>
       </c>
       <c r="W19" t="n">
-        <v>144.6265034169702</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>144.6265034169702</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>144.6265034169702</v>
       </c>
     </row>
     <row r="20">
@@ -28971,16 +28971,16 @@
         <v>144.6265034169702</v>
       </c>
       <c r="G22" t="n">
-        <v>144.6265034169702</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.6265034169702</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>118.5524231889554</v>
       </c>
       <c r="J22" t="n">
-        <v>6.613065132155924</v>
+        <v>6.613065132155953</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29007,7 +29007,7 @@
         <v>122.1247807672402</v>
       </c>
       <c r="S22" t="n">
-        <v>144.6265034169702</v>
+        <v>77.89978780722778</v>
       </c>
       <c r="T22" t="n">
         <v>144.6265034169702</v>
@@ -29016,13 +29016,13 @@
         <v>144.6265034169702</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>144.6265034169702</v>
       </c>
       <c r="W22" t="n">
-        <v>77.89978780722751</v>
+        <v>144.6265034169702</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>144.6265034169702</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6265034169702</v>
@@ -29199,7 +29199,7 @@
         <v>144.6265034169702</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>144.6265034169702</v>
       </c>
       <c r="E25" t="n">
         <v>144.6265034169702</v>
@@ -29208,7 +29208,7 @@
         <v>144.6265034169702</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>144.6265034169702</v>
       </c>
       <c r="H25" t="n">
         <v>144.6265034169702</v>
@@ -29217,7 +29217,7 @@
         <v>118.5524231889554</v>
       </c>
       <c r="J25" t="n">
-        <v>6.613065132155924</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29244,16 +29244,16 @@
         <v>122.1247807672402</v>
       </c>
       <c r="S25" t="n">
-        <v>144.6265034169702</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>144.6265034169702</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>144.6265034169702</v>
       </c>
       <c r="V25" t="n">
-        <v>77.89978780722734</v>
+        <v>144.6265034169702</v>
       </c>
       <c r="W25" t="n">
         <v>144.6265034169702</v>
@@ -29262,7 +29262,7 @@
         <v>144.6265034169702</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6265034169702</v>
+        <v>84.51285293938378</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="C26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="D26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="E26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="F26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="G26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="H26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="I26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="T26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="U26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="V26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="W26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="X26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="Y26" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035144</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="C28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="D28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="E28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="F28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="G28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="H28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="I28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="J28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="K28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.3643331803506</v>
       </c>
       <c r="L28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="M28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="N28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="O28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="P28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="Q28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="R28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="S28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="T28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="U28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="V28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="W28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="X28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="Y28" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035144</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="C29" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="D29" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="E29" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="F29" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="G29" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="H29" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="I29" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="T29" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="U29" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="V29" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="W29" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="X29" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="Y29" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035138</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="C31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="D31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="E31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="F31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="G31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="H31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="I31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="J31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="K31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="L31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="M31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="N31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="O31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="P31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="Q31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="R31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="S31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="T31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="U31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="V31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="W31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="X31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="Y31" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035138</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="C32" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="D32" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="E32" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="F32" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="G32" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="H32" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="I32" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="T32" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="U32" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="V32" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="W32" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="X32" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Y32" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="C34" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="D34" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="E34" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="F34" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="G34" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="H34" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="I34" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="J34" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="K34" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="L34" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="M34" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="N34" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="O34" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="P34" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Q34" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="R34" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="S34" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="T34" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="U34" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="V34" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="W34" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="X34" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Y34" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="C35" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="D35" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="E35" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="F35" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="G35" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="H35" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="I35" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="T35" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="U35" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="V35" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="W35" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="X35" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Y35" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="C37" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="D37" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="E37" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="F37" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="G37" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="H37" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="I37" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="J37" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="K37" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="L37" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="M37" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="N37" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="O37" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="P37" t="n">
-        <v>80.36433318035159</v>
+        <v>80.36433318035051</v>
       </c>
       <c r="Q37" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="R37" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="S37" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="T37" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="U37" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="V37" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="W37" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="X37" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Y37" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="C38" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="D38" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="E38" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="F38" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="G38" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="H38" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="I38" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="T38" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="U38" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="V38" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="W38" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="X38" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Y38" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="C40" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="D40" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="E40" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="F40" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="G40" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="H40" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="I40" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="J40" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="K40" t="n">
-        <v>80.36433318035157</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="L40" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="M40" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="N40" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035054</v>
       </c>
       <c r="O40" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="P40" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Q40" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="R40" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="S40" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="T40" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="U40" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="V40" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="W40" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="X40" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Y40" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
     </row>
     <row r="41">
@@ -30882,7 +30882,7 @@
         <v>80.36433318035137</v>
       </c>
       <c r="L46" t="n">
-        <v>80.36433318035151</v>
+        <v>80.36433318035137</v>
       </c>
       <c r="M46" t="n">
         <v>80.36433318035137</v>
@@ -30891,7 +30891,7 @@
         <v>80.36433318035137</v>
       </c>
       <c r="O46" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035168</v>
       </c>
       <c r="P46" t="n">
         <v>80.36433318035137</v>
@@ -31753,7 +31753,7 @@
         <v>2.73529820327329</v>
       </c>
       <c r="H11" t="n">
-        <v>28.01287272427259</v>
+        <v>28.01287272427258</v>
       </c>
       <c r="I11" t="n">
         <v>105.4525839816936</v>
@@ -31762,37 +31762,37 @@
         <v>232.1550158800666</v>
       </c>
       <c r="K11" t="n">
-        <v>347.9401888246251</v>
+        <v>347.940188824625</v>
       </c>
       <c r="L11" t="n">
-        <v>431.6505712130502</v>
+        <v>431.65057121305</v>
       </c>
       <c r="M11" t="n">
-        <v>480.2944306355115</v>
+        <v>480.2944306355113</v>
       </c>
       <c r="N11" t="n">
-        <v>488.0660966555618</v>
+        <v>488.0660966555616</v>
       </c>
       <c r="O11" t="n">
-        <v>460.866975146763</v>
+        <v>460.8669751467628</v>
       </c>
       <c r="P11" t="n">
-        <v>393.3393007534535</v>
+        <v>393.3393007534534</v>
       </c>
       <c r="Q11" t="n">
-        <v>295.3814338487288</v>
+        <v>295.3814338487286</v>
       </c>
       <c r="R11" t="n">
-        <v>171.821175761366</v>
+        <v>171.8211757613659</v>
       </c>
       <c r="S11" t="n">
-        <v>62.33060780709017</v>
+        <v>62.33060780709015</v>
       </c>
       <c r="T11" t="n">
         <v>11.97376788482883</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2188238562618632</v>
+        <v>0.2188238562618631</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,43 +31835,43 @@
         <v>14.13445993016451</v>
       </c>
       <c r="I12" t="n">
-        <v>50.38851519154922</v>
+        <v>50.38851519154921</v>
       </c>
       <c r="J12" t="n">
-        <v>138.2699370370907</v>
+        <v>138.2699370370906</v>
       </c>
       <c r="K12" t="n">
-        <v>236.3253457079322</v>
+        <v>236.3253457079321</v>
       </c>
       <c r="L12" t="n">
-        <v>317.7685916633942</v>
+        <v>317.7685916633941</v>
       </c>
       <c r="M12" t="n">
-        <v>370.8209582950061</v>
+        <v>370.820958295006</v>
       </c>
       <c r="N12" t="n">
-        <v>380.6354856488761</v>
+        <v>380.6354856488759</v>
       </c>
       <c r="O12" t="n">
-        <v>348.2071061905695</v>
+        <v>348.2071061905694</v>
       </c>
       <c r="P12" t="n">
-        <v>279.4669011986841</v>
+        <v>279.466901198684</v>
       </c>
       <c r="Q12" t="n">
         <v>186.8162224375603</v>
       </c>
       <c r="R12" t="n">
-        <v>90.86621924223834</v>
+        <v>90.86621924223832</v>
       </c>
       <c r="S12" t="n">
         <v>27.18412252690583</v>
       </c>
       <c r="T12" t="n">
-        <v>5.898986682934232</v>
+        <v>5.898986682934229</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09628378699022148</v>
+        <v>0.09628378699022144</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,16 +31908,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.22696060798468</v>
+        <v>1.226960607984679</v>
       </c>
       <c r="H13" t="n">
         <v>10.90879522371834</v>
       </c>
       <c r="I13" t="n">
-        <v>36.89805173830293</v>
+        <v>36.89805173830291</v>
       </c>
       <c r="J13" t="n">
-        <v>86.74611498451685</v>
+        <v>86.74611498451682</v>
       </c>
       <c r="K13" t="n">
         <v>142.5505142731291</v>
@@ -31926,31 +31926,31 @@
         <v>182.4155798452859</v>
       </c>
       <c r="M13" t="n">
-        <v>192.3316523952712</v>
+        <v>192.3316523952711</v>
       </c>
       <c r="N13" t="n">
-        <v>187.7584355836921</v>
+        <v>187.758435583692</v>
       </c>
       <c r="O13" t="n">
-        <v>173.4253048449619</v>
+        <v>173.4253048449618</v>
       </c>
       <c r="P13" t="n">
-        <v>148.3953084420743</v>
+        <v>148.3953084420742</v>
       </c>
       <c r="Q13" t="n">
         <v>102.7412196376989</v>
       </c>
       <c r="R13" t="n">
-        <v>55.16861060992931</v>
+        <v>55.16861060992929</v>
       </c>
       <c r="S13" t="n">
         <v>21.38257714096936</v>
       </c>
       <c r="T13" t="n">
-        <v>5.242468052298175</v>
+        <v>5.242468052298173</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06692512407189169</v>
+        <v>0.06692512407189168</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31990,7 @@
         <v>2.73529820327329</v>
       </c>
       <c r="H14" t="n">
-        <v>28.01287272427259</v>
+        <v>28.01287272427258</v>
       </c>
       <c r="I14" t="n">
         <v>105.4525839816936</v>
@@ -31999,37 +31999,37 @@
         <v>232.1550158800666</v>
       </c>
       <c r="K14" t="n">
-        <v>347.9401888246251</v>
+        <v>347.940188824625</v>
       </c>
       <c r="L14" t="n">
-        <v>431.6505712130502</v>
+        <v>431.65057121305</v>
       </c>
       <c r="M14" t="n">
-        <v>480.2944306355115</v>
+        <v>480.2944306355113</v>
       </c>
       <c r="N14" t="n">
-        <v>488.0660966555618</v>
+        <v>488.0660966555616</v>
       </c>
       <c r="O14" t="n">
-        <v>460.866975146763</v>
+        <v>460.8669751467628</v>
       </c>
       <c r="P14" t="n">
-        <v>393.3393007534535</v>
+        <v>393.3393007534534</v>
       </c>
       <c r="Q14" t="n">
-        <v>295.3814338487288</v>
+        <v>295.3814338487286</v>
       </c>
       <c r="R14" t="n">
-        <v>171.821175761366</v>
+        <v>171.8211757613659</v>
       </c>
       <c r="S14" t="n">
-        <v>62.33060780709017</v>
+        <v>62.33060780709015</v>
       </c>
       <c r="T14" t="n">
         <v>11.97376788482883</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2188238562618632</v>
+        <v>0.2188238562618631</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,43 +32072,43 @@
         <v>14.13445993016451</v>
       </c>
       <c r="I15" t="n">
-        <v>50.38851519154922</v>
+        <v>50.38851519154921</v>
       </c>
       <c r="J15" t="n">
-        <v>138.2699370370907</v>
+        <v>138.2699370370906</v>
       </c>
       <c r="K15" t="n">
-        <v>236.3253457079322</v>
+        <v>236.3253457079321</v>
       </c>
       <c r="L15" t="n">
-        <v>317.7685916633942</v>
+        <v>317.7685916633941</v>
       </c>
       <c r="M15" t="n">
-        <v>370.8209582950061</v>
+        <v>370.820958295006</v>
       </c>
       <c r="N15" t="n">
-        <v>380.6354856488761</v>
+        <v>380.6354856488759</v>
       </c>
       <c r="O15" t="n">
-        <v>348.2071061905695</v>
+        <v>348.2071061905694</v>
       </c>
       <c r="P15" t="n">
-        <v>279.4669011986841</v>
+        <v>279.466901198684</v>
       </c>
       <c r="Q15" t="n">
         <v>186.8162224375603</v>
       </c>
       <c r="R15" t="n">
-        <v>90.86621924223834</v>
+        <v>90.86621924223832</v>
       </c>
       <c r="S15" t="n">
         <v>27.18412252690583</v>
       </c>
       <c r="T15" t="n">
-        <v>5.898986682934232</v>
+        <v>5.898986682934229</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09628378699022148</v>
+        <v>0.09628378699022144</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,16 +32145,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.22696060798468</v>
+        <v>1.226960607984679</v>
       </c>
       <c r="H16" t="n">
         <v>10.90879522371834</v>
       </c>
       <c r="I16" t="n">
-        <v>36.89805173830293</v>
+        <v>36.89805173830291</v>
       </c>
       <c r="J16" t="n">
-        <v>86.74611498451685</v>
+        <v>86.74611498451682</v>
       </c>
       <c r="K16" t="n">
         <v>142.5505142731291</v>
@@ -32163,31 +32163,31 @@
         <v>182.4155798452859</v>
       </c>
       <c r="M16" t="n">
-        <v>192.3316523952712</v>
+        <v>192.3316523952711</v>
       </c>
       <c r="N16" t="n">
-        <v>187.7584355836921</v>
+        <v>187.758435583692</v>
       </c>
       <c r="O16" t="n">
-        <v>173.4253048449619</v>
+        <v>173.4253048449618</v>
       </c>
       <c r="P16" t="n">
-        <v>148.3953084420743</v>
+        <v>148.3953084420742</v>
       </c>
       <c r="Q16" t="n">
         <v>102.7412196376989</v>
       </c>
       <c r="R16" t="n">
-        <v>55.16861060992931</v>
+        <v>55.16861060992929</v>
       </c>
       <c r="S16" t="n">
         <v>21.38257714096936</v>
       </c>
       <c r="T16" t="n">
-        <v>5.242468052298175</v>
+        <v>5.242468052298173</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06692512407189169</v>
+        <v>0.06692512407189168</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>2.73529820327329</v>
       </c>
       <c r="H17" t="n">
-        <v>28.01287272427259</v>
+        <v>28.01287272427258</v>
       </c>
       <c r="I17" t="n">
         <v>105.4525839816936</v>
@@ -32236,37 +32236,37 @@
         <v>232.1550158800666</v>
       </c>
       <c r="K17" t="n">
-        <v>347.9401888246251</v>
+        <v>347.940188824625</v>
       </c>
       <c r="L17" t="n">
-        <v>431.6505712130502</v>
+        <v>431.65057121305</v>
       </c>
       <c r="M17" t="n">
-        <v>480.2944306355115</v>
+        <v>480.2944306355113</v>
       </c>
       <c r="N17" t="n">
-        <v>488.0660966555618</v>
+        <v>488.0660966555616</v>
       </c>
       <c r="O17" t="n">
-        <v>460.866975146763</v>
+        <v>460.8669751467628</v>
       </c>
       <c r="P17" t="n">
-        <v>393.3393007534535</v>
+        <v>393.3393007534534</v>
       </c>
       <c r="Q17" t="n">
-        <v>295.3814338487288</v>
+        <v>295.3814338487286</v>
       </c>
       <c r="R17" t="n">
-        <v>171.821175761366</v>
+        <v>171.8211757613659</v>
       </c>
       <c r="S17" t="n">
-        <v>62.33060780709017</v>
+        <v>62.33060780709015</v>
       </c>
       <c r="T17" t="n">
         <v>11.97376788482883</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2188238562618632</v>
+        <v>0.2188238562618631</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,43 +32309,43 @@
         <v>14.13445993016451</v>
       </c>
       <c r="I18" t="n">
-        <v>50.38851519154922</v>
+        <v>50.38851519154921</v>
       </c>
       <c r="J18" t="n">
-        <v>138.2699370370907</v>
+        <v>138.2699370370906</v>
       </c>
       <c r="K18" t="n">
-        <v>236.3253457079322</v>
+        <v>236.3253457079321</v>
       </c>
       <c r="L18" t="n">
-        <v>317.7685916633942</v>
+        <v>317.7685916633941</v>
       </c>
       <c r="M18" t="n">
-        <v>370.8209582950061</v>
+        <v>370.820958295006</v>
       </c>
       <c r="N18" t="n">
-        <v>380.6354856488761</v>
+        <v>380.6354856488759</v>
       </c>
       <c r="O18" t="n">
-        <v>348.2071061905695</v>
+        <v>348.2071061905694</v>
       </c>
       <c r="P18" t="n">
-        <v>279.4669011986841</v>
+        <v>279.466901198684</v>
       </c>
       <c r="Q18" t="n">
         <v>186.8162224375603</v>
       </c>
       <c r="R18" t="n">
-        <v>90.86621924223834</v>
+        <v>90.86621924223832</v>
       </c>
       <c r="S18" t="n">
         <v>27.18412252690583</v>
       </c>
       <c r="T18" t="n">
-        <v>5.898986682934232</v>
+        <v>5.898986682934229</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09628378699022148</v>
+        <v>0.09628378699022144</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,16 +32382,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.22696060798468</v>
+        <v>1.226960607984679</v>
       </c>
       <c r="H19" t="n">
         <v>10.90879522371834</v>
       </c>
       <c r="I19" t="n">
-        <v>36.89805173830293</v>
+        <v>36.89805173830291</v>
       </c>
       <c r="J19" t="n">
-        <v>86.74611498451685</v>
+        <v>86.74611498451682</v>
       </c>
       <c r="K19" t="n">
         <v>142.5505142731291</v>
@@ -32400,31 +32400,31 @@
         <v>182.4155798452859</v>
       </c>
       <c r="M19" t="n">
-        <v>192.3316523952712</v>
+        <v>192.3316523952711</v>
       </c>
       <c r="N19" t="n">
-        <v>187.7584355836921</v>
+        <v>187.758435583692</v>
       </c>
       <c r="O19" t="n">
-        <v>173.4253048449619</v>
+        <v>173.4253048449618</v>
       </c>
       <c r="P19" t="n">
-        <v>148.3953084420743</v>
+        <v>148.3953084420742</v>
       </c>
       <c r="Q19" t="n">
         <v>102.7412196376989</v>
       </c>
       <c r="R19" t="n">
-        <v>55.16861060992931</v>
+        <v>55.16861060992929</v>
       </c>
       <c r="S19" t="n">
         <v>21.38257714096936</v>
       </c>
       <c r="T19" t="n">
-        <v>5.242468052298175</v>
+        <v>5.242468052298173</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06692512407189169</v>
+        <v>0.06692512407189168</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>2.73529820327329</v>
       </c>
       <c r="H20" t="n">
-        <v>28.01287272427259</v>
+        <v>28.01287272427258</v>
       </c>
       <c r="I20" t="n">
         <v>105.4525839816936</v>
@@ -32473,37 +32473,37 @@
         <v>232.1550158800666</v>
       </c>
       <c r="K20" t="n">
-        <v>347.9401888246251</v>
+        <v>347.940188824625</v>
       </c>
       <c r="L20" t="n">
-        <v>431.6505712130502</v>
+        <v>431.65057121305</v>
       </c>
       <c r="M20" t="n">
-        <v>480.2944306355115</v>
+        <v>480.2944306355113</v>
       </c>
       <c r="N20" t="n">
-        <v>488.0660966555618</v>
+        <v>488.0660966555616</v>
       </c>
       <c r="O20" t="n">
-        <v>460.866975146763</v>
+        <v>460.8669751467628</v>
       </c>
       <c r="P20" t="n">
-        <v>393.3393007534535</v>
+        <v>393.3393007534534</v>
       </c>
       <c r="Q20" t="n">
-        <v>295.3814338487288</v>
+        <v>295.3814338487286</v>
       </c>
       <c r="R20" t="n">
-        <v>171.821175761366</v>
+        <v>171.8211757613659</v>
       </c>
       <c r="S20" t="n">
-        <v>62.33060780709017</v>
+        <v>62.33060780709015</v>
       </c>
       <c r="T20" t="n">
         <v>11.97376788482883</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2188238562618632</v>
+        <v>0.2188238562618631</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,43 +32546,43 @@
         <v>14.13445993016451</v>
       </c>
       <c r="I21" t="n">
-        <v>50.38851519154922</v>
+        <v>50.38851519154921</v>
       </c>
       <c r="J21" t="n">
-        <v>138.2699370370907</v>
+        <v>138.2699370370906</v>
       </c>
       <c r="K21" t="n">
-        <v>236.3253457079322</v>
+        <v>236.3253457079321</v>
       </c>
       <c r="L21" t="n">
-        <v>317.7685916633942</v>
+        <v>317.7685916633941</v>
       </c>
       <c r="M21" t="n">
-        <v>370.8209582950061</v>
+        <v>370.820958295006</v>
       </c>
       <c r="N21" t="n">
-        <v>380.6354856488761</v>
+        <v>380.6354856488759</v>
       </c>
       <c r="O21" t="n">
-        <v>348.2071061905695</v>
+        <v>348.2071061905694</v>
       </c>
       <c r="P21" t="n">
-        <v>279.4669011986841</v>
+        <v>279.466901198684</v>
       </c>
       <c r="Q21" t="n">
         <v>186.8162224375603</v>
       </c>
       <c r="R21" t="n">
-        <v>90.86621924223834</v>
+        <v>90.86621924223832</v>
       </c>
       <c r="S21" t="n">
         <v>27.18412252690583</v>
       </c>
       <c r="T21" t="n">
-        <v>5.898986682934232</v>
+        <v>5.898986682934229</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09628378699022148</v>
+        <v>0.09628378699022144</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,16 +32619,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.22696060798468</v>
+        <v>1.226960607984679</v>
       </c>
       <c r="H22" t="n">
         <v>10.90879522371834</v>
       </c>
       <c r="I22" t="n">
-        <v>36.89805173830293</v>
+        <v>36.89805173830291</v>
       </c>
       <c r="J22" t="n">
-        <v>86.74611498451685</v>
+        <v>86.74611498451682</v>
       </c>
       <c r="K22" t="n">
         <v>142.5505142731291</v>
@@ -32637,31 +32637,31 @@
         <v>182.4155798452859</v>
       </c>
       <c r="M22" t="n">
-        <v>192.3316523952712</v>
+        <v>192.3316523952711</v>
       </c>
       <c r="N22" t="n">
-        <v>187.7584355836921</v>
+        <v>187.758435583692</v>
       </c>
       <c r="O22" t="n">
-        <v>173.4253048449619</v>
+        <v>173.4253048449618</v>
       </c>
       <c r="P22" t="n">
-        <v>148.3953084420743</v>
+        <v>148.3953084420742</v>
       </c>
       <c r="Q22" t="n">
         <v>102.7412196376989</v>
       </c>
       <c r="R22" t="n">
-        <v>55.16861060992931</v>
+        <v>55.16861060992929</v>
       </c>
       <c r="S22" t="n">
         <v>21.38257714096936</v>
       </c>
       <c r="T22" t="n">
-        <v>5.242468052298175</v>
+        <v>5.242468052298173</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06692512407189169</v>
+        <v>0.06692512407189168</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>2.73529820327329</v>
       </c>
       <c r="H23" t="n">
-        <v>28.01287272427259</v>
+        <v>28.01287272427258</v>
       </c>
       <c r="I23" t="n">
         <v>105.4525839816936</v>
@@ -32710,37 +32710,37 @@
         <v>232.1550158800666</v>
       </c>
       <c r="K23" t="n">
-        <v>347.9401888246251</v>
+        <v>347.940188824625</v>
       </c>
       <c r="L23" t="n">
-        <v>431.6505712130502</v>
+        <v>431.65057121305</v>
       </c>
       <c r="M23" t="n">
-        <v>480.2944306355115</v>
+        <v>480.2944306355113</v>
       </c>
       <c r="N23" t="n">
-        <v>488.0660966555618</v>
+        <v>488.0660966555616</v>
       </c>
       <c r="O23" t="n">
-        <v>460.866975146763</v>
+        <v>460.8669751467628</v>
       </c>
       <c r="P23" t="n">
-        <v>393.3393007534535</v>
+        <v>393.3393007534534</v>
       </c>
       <c r="Q23" t="n">
-        <v>295.3814338487288</v>
+        <v>295.3814338487286</v>
       </c>
       <c r="R23" t="n">
-        <v>171.821175761366</v>
+        <v>171.8211757613659</v>
       </c>
       <c r="S23" t="n">
-        <v>62.33060780709017</v>
+        <v>62.33060780709015</v>
       </c>
       <c r="T23" t="n">
         <v>11.97376788482883</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2188238562618632</v>
+        <v>0.2188238562618631</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,43 +32783,43 @@
         <v>14.13445993016451</v>
       </c>
       <c r="I24" t="n">
-        <v>50.38851519154922</v>
+        <v>50.38851519154921</v>
       </c>
       <c r="J24" t="n">
-        <v>138.2699370370907</v>
+        <v>138.2699370370906</v>
       </c>
       <c r="K24" t="n">
-        <v>236.3253457079322</v>
+        <v>236.3253457079321</v>
       </c>
       <c r="L24" t="n">
-        <v>317.7685916633942</v>
+        <v>317.7685916633941</v>
       </c>
       <c r="M24" t="n">
-        <v>370.8209582950061</v>
+        <v>370.820958295006</v>
       </c>
       <c r="N24" t="n">
-        <v>380.6354856488761</v>
+        <v>380.6354856488759</v>
       </c>
       <c r="O24" t="n">
-        <v>348.2071061905695</v>
+        <v>348.2071061905694</v>
       </c>
       <c r="P24" t="n">
-        <v>279.4669011986841</v>
+        <v>279.466901198684</v>
       </c>
       <c r="Q24" t="n">
         <v>186.8162224375603</v>
       </c>
       <c r="R24" t="n">
-        <v>90.86621924223834</v>
+        <v>90.86621924223832</v>
       </c>
       <c r="S24" t="n">
         <v>27.18412252690583</v>
       </c>
       <c r="T24" t="n">
-        <v>5.898986682934232</v>
+        <v>5.898986682934229</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09628378699022148</v>
+        <v>0.09628378699022144</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,16 +32856,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.22696060798468</v>
+        <v>1.226960607984679</v>
       </c>
       <c r="H25" t="n">
         <v>10.90879522371834</v>
       </c>
       <c r="I25" t="n">
-        <v>36.89805173830293</v>
+        <v>36.89805173830291</v>
       </c>
       <c r="J25" t="n">
-        <v>86.74611498451685</v>
+        <v>86.74611498451682</v>
       </c>
       <c r="K25" t="n">
         <v>142.5505142731291</v>
@@ -32874,31 +32874,31 @@
         <v>182.4155798452859</v>
       </c>
       <c r="M25" t="n">
-        <v>192.3316523952712</v>
+        <v>192.3316523952711</v>
       </c>
       <c r="N25" t="n">
-        <v>187.7584355836921</v>
+        <v>187.758435583692</v>
       </c>
       <c r="O25" t="n">
-        <v>173.4253048449619</v>
+        <v>173.4253048449618</v>
       </c>
       <c r="P25" t="n">
-        <v>148.3953084420743</v>
+        <v>148.3953084420742</v>
       </c>
       <c r="Q25" t="n">
         <v>102.7412196376989</v>
       </c>
       <c r="R25" t="n">
-        <v>55.16861060992931</v>
+        <v>55.16861060992929</v>
       </c>
       <c r="S25" t="n">
         <v>21.38257714096936</v>
       </c>
       <c r="T25" t="n">
-        <v>5.242468052298175</v>
+        <v>5.242468052298173</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06692512407189169</v>
+        <v>0.06692512407189168</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.735298203273291</v>
+        <v>2.73529820327329</v>
       </c>
       <c r="H26" t="n">
-        <v>28.0128727242726</v>
+        <v>28.01287272427258</v>
       </c>
       <c r="I26" t="n">
         <v>105.4525839816936</v>
       </c>
       <c r="J26" t="n">
-        <v>232.1550158800667</v>
+        <v>232.1550158800666</v>
       </c>
       <c r="K26" t="n">
-        <v>347.9401888246251</v>
+        <v>347.940188824625</v>
       </c>
       <c r="L26" t="n">
-        <v>431.6505712130502</v>
+        <v>431.65057121305</v>
       </c>
       <c r="M26" t="n">
-        <v>480.2944306355116</v>
+        <v>480.2944306355113</v>
       </c>
       <c r="N26" t="n">
-        <v>488.0660966555619</v>
+        <v>488.0660966555616</v>
       </c>
       <c r="O26" t="n">
-        <v>460.866975146763</v>
+        <v>460.8669751467628</v>
       </c>
       <c r="P26" t="n">
-        <v>393.3393007534536</v>
+        <v>393.3393007534534</v>
       </c>
       <c r="Q26" t="n">
-        <v>295.3814338487288</v>
+        <v>295.3814338487286</v>
       </c>
       <c r="R26" t="n">
-        <v>171.821175761366</v>
+        <v>171.8211757613659</v>
       </c>
       <c r="S26" t="n">
-        <v>62.33060780709017</v>
+        <v>62.33060780709015</v>
       </c>
       <c r="T26" t="n">
-        <v>11.97376788482884</v>
+        <v>11.97376788482883</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2188238562618632</v>
+        <v>0.2188238562618631</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,43 +33020,43 @@
         <v>14.13445993016451</v>
       </c>
       <c r="I27" t="n">
-        <v>50.38851519154924</v>
+        <v>50.38851519154921</v>
       </c>
       <c r="J27" t="n">
-        <v>138.2699370370907</v>
+        <v>138.2699370370906</v>
       </c>
       <c r="K27" t="n">
-        <v>236.3253457079322</v>
+        <v>236.3253457079321</v>
       </c>
       <c r="L27" t="n">
-        <v>317.7685916633943</v>
+        <v>317.7685916633941</v>
       </c>
       <c r="M27" t="n">
-        <v>370.8209582950062</v>
+        <v>370.820958295006</v>
       </c>
       <c r="N27" t="n">
-        <v>380.6354856488762</v>
+        <v>380.6354856488759</v>
       </c>
       <c r="O27" t="n">
-        <v>348.2071061905696</v>
+        <v>348.2071061905694</v>
       </c>
       <c r="P27" t="n">
-        <v>279.4669011986841</v>
+        <v>279.466901198684</v>
       </c>
       <c r="Q27" t="n">
-        <v>186.8162224375604</v>
+        <v>186.8162224375603</v>
       </c>
       <c r="R27" t="n">
-        <v>90.86621924223836</v>
+        <v>90.86621924223832</v>
       </c>
       <c r="S27" t="n">
-        <v>27.18412252690584</v>
+        <v>27.18412252690583</v>
       </c>
       <c r="T27" t="n">
-        <v>5.898986682934233</v>
+        <v>5.898986682934229</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0962837869902215</v>
+        <v>0.09628378699022144</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.22696060798468</v>
+        <v>1.226960607984679</v>
       </c>
       <c r="H28" t="n">
         <v>10.90879522371834</v>
       </c>
       <c r="I28" t="n">
-        <v>36.89805173830293</v>
+        <v>36.89805173830291</v>
       </c>
       <c r="J28" t="n">
-        <v>86.74611498451686</v>
+        <v>86.74611498451682</v>
       </c>
       <c r="K28" t="n">
         <v>142.5505142731291</v>
       </c>
       <c r="L28" t="n">
-        <v>182.415579845286</v>
+        <v>182.4155798452859</v>
       </c>
       <c r="M28" t="n">
-        <v>192.3316523952712</v>
+        <v>192.3316523952711</v>
       </c>
       <c r="N28" t="n">
-        <v>187.7584355836921</v>
+        <v>187.758435583692</v>
       </c>
       <c r="O28" t="n">
-        <v>173.4253048449619</v>
+        <v>173.4253048449618</v>
       </c>
       <c r="P28" t="n">
-        <v>148.3953084420743</v>
+        <v>148.3953084420742</v>
       </c>
       <c r="Q28" t="n">
-        <v>102.741219637699</v>
+        <v>102.7412196376989</v>
       </c>
       <c r="R28" t="n">
-        <v>55.16861060992932</v>
+        <v>55.16861060992929</v>
       </c>
       <c r="S28" t="n">
-        <v>21.38257714096937</v>
+        <v>21.38257714096936</v>
       </c>
       <c r="T28" t="n">
-        <v>5.242468052298176</v>
+        <v>5.242468052298173</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0669251240718917</v>
+        <v>0.06692512407189168</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>2.73529820327329</v>
       </c>
       <c r="H29" t="n">
-        <v>28.01287272427259</v>
+        <v>28.01287272427258</v>
       </c>
       <c r="I29" t="n">
         <v>105.4525839816936</v>
@@ -33184,37 +33184,37 @@
         <v>232.1550158800666</v>
       </c>
       <c r="K29" t="n">
-        <v>347.9401888246251</v>
+        <v>347.940188824625</v>
       </c>
       <c r="L29" t="n">
-        <v>431.6505712130502</v>
+        <v>431.65057121305</v>
       </c>
       <c r="M29" t="n">
-        <v>480.2944306355115</v>
+        <v>480.2944306355113</v>
       </c>
       <c r="N29" t="n">
-        <v>488.0660966555618</v>
+        <v>488.0660966555616</v>
       </c>
       <c r="O29" t="n">
-        <v>460.866975146763</v>
+        <v>460.8669751467628</v>
       </c>
       <c r="P29" t="n">
-        <v>393.3393007534535</v>
+        <v>393.3393007534534</v>
       </c>
       <c r="Q29" t="n">
-        <v>295.3814338487288</v>
+        <v>295.3814338487286</v>
       </c>
       <c r="R29" t="n">
-        <v>171.821175761366</v>
+        <v>171.8211757613659</v>
       </c>
       <c r="S29" t="n">
-        <v>62.33060780709017</v>
+        <v>62.33060780709015</v>
       </c>
       <c r="T29" t="n">
         <v>11.97376788482883</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2188238562618632</v>
+        <v>0.2188238562618631</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,43 +33257,43 @@
         <v>14.13445993016451</v>
       </c>
       <c r="I30" t="n">
-        <v>50.38851519154922</v>
+        <v>50.38851519154921</v>
       </c>
       <c r="J30" t="n">
-        <v>138.2699370370907</v>
+        <v>138.2699370370906</v>
       </c>
       <c r="K30" t="n">
-        <v>236.3253457079322</v>
+        <v>236.3253457079321</v>
       </c>
       <c r="L30" t="n">
-        <v>317.7685916633942</v>
+        <v>317.7685916633941</v>
       </c>
       <c r="M30" t="n">
-        <v>370.8209582950061</v>
+        <v>370.820958295006</v>
       </c>
       <c r="N30" t="n">
-        <v>380.6354856488761</v>
+        <v>380.6354856488759</v>
       </c>
       <c r="O30" t="n">
-        <v>348.2071061905695</v>
+        <v>348.2071061905694</v>
       </c>
       <c r="P30" t="n">
-        <v>279.4669011986841</v>
+        <v>279.466901198684</v>
       </c>
       <c r="Q30" t="n">
         <v>186.8162224375603</v>
       </c>
       <c r="R30" t="n">
-        <v>90.86621924223834</v>
+        <v>90.86621924223832</v>
       </c>
       <c r="S30" t="n">
         <v>27.18412252690583</v>
       </c>
       <c r="T30" t="n">
-        <v>5.898986682934232</v>
+        <v>5.898986682934229</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09628378699022148</v>
+        <v>0.09628378699022144</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33330,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.22696060798468</v>
+        <v>1.226960607984679</v>
       </c>
       <c r="H31" t="n">
         <v>10.90879522371834</v>
       </c>
       <c r="I31" t="n">
-        <v>36.89805173830293</v>
+        <v>36.89805173830291</v>
       </c>
       <c r="J31" t="n">
-        <v>86.74611498451685</v>
+        <v>86.74611498451682</v>
       </c>
       <c r="K31" t="n">
         <v>142.5505142731291</v>
@@ -33348,31 +33348,31 @@
         <v>182.4155798452859</v>
       </c>
       <c r="M31" t="n">
-        <v>192.3316523952712</v>
+        <v>192.3316523952711</v>
       </c>
       <c r="N31" t="n">
-        <v>187.7584355836921</v>
+        <v>187.758435583692</v>
       </c>
       <c r="O31" t="n">
-        <v>173.4253048449619</v>
+        <v>173.4253048449618</v>
       </c>
       <c r="P31" t="n">
-        <v>148.3953084420743</v>
+        <v>148.3953084420742</v>
       </c>
       <c r="Q31" t="n">
         <v>102.7412196376989</v>
       </c>
       <c r="R31" t="n">
-        <v>55.16861060992931</v>
+        <v>55.16861060992929</v>
       </c>
       <c r="S31" t="n">
         <v>21.38257714096936</v>
       </c>
       <c r="T31" t="n">
-        <v>5.242468052298175</v>
+        <v>5.242468052298173</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06692512407189169</v>
+        <v>0.06692512407189168</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>2.73529820327329</v>
       </c>
       <c r="H32" t="n">
-        <v>28.01287272427259</v>
+        <v>28.01287272427258</v>
       </c>
       <c r="I32" t="n">
         <v>105.4525839816936</v>
@@ -33421,37 +33421,37 @@
         <v>232.1550158800666</v>
       </c>
       <c r="K32" t="n">
-        <v>347.9401888246251</v>
+        <v>347.940188824625</v>
       </c>
       <c r="L32" t="n">
-        <v>431.6505712130502</v>
+        <v>431.65057121305</v>
       </c>
       <c r="M32" t="n">
-        <v>480.2944306355115</v>
+        <v>480.2944306355113</v>
       </c>
       <c r="N32" t="n">
-        <v>488.0660966555618</v>
+        <v>488.0660966555616</v>
       </c>
       <c r="O32" t="n">
-        <v>460.866975146763</v>
+        <v>460.8669751467628</v>
       </c>
       <c r="P32" t="n">
-        <v>393.3393007534535</v>
+        <v>393.3393007534534</v>
       </c>
       <c r="Q32" t="n">
-        <v>295.3814338487288</v>
+        <v>295.3814338487286</v>
       </c>
       <c r="R32" t="n">
-        <v>171.821175761366</v>
+        <v>171.8211757613659</v>
       </c>
       <c r="S32" t="n">
-        <v>62.33060780709017</v>
+        <v>62.33060780709015</v>
       </c>
       <c r="T32" t="n">
         <v>11.97376788482883</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2188238562618632</v>
+        <v>0.2188238562618631</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,43 +33494,43 @@
         <v>14.13445993016451</v>
       </c>
       <c r="I33" t="n">
-        <v>50.38851519154922</v>
+        <v>50.38851519154921</v>
       </c>
       <c r="J33" t="n">
-        <v>138.2699370370907</v>
+        <v>138.2699370370906</v>
       </c>
       <c r="K33" t="n">
-        <v>236.3253457079322</v>
+        <v>236.3253457079321</v>
       </c>
       <c r="L33" t="n">
-        <v>317.7685916633942</v>
+        <v>317.7685916633941</v>
       </c>
       <c r="M33" t="n">
-        <v>370.8209582950061</v>
+        <v>370.820958295006</v>
       </c>
       <c r="N33" t="n">
-        <v>380.6354856488761</v>
+        <v>380.6354856488759</v>
       </c>
       <c r="O33" t="n">
-        <v>348.2071061905695</v>
+        <v>348.2071061905694</v>
       </c>
       <c r="P33" t="n">
-        <v>279.4669011986841</v>
+        <v>279.466901198684</v>
       </c>
       <c r="Q33" t="n">
         <v>186.8162224375603</v>
       </c>
       <c r="R33" t="n">
-        <v>90.86621924223834</v>
+        <v>90.86621924223832</v>
       </c>
       <c r="S33" t="n">
         <v>27.18412252690583</v>
       </c>
       <c r="T33" t="n">
-        <v>5.898986682934232</v>
+        <v>5.898986682934229</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09628378699022148</v>
+        <v>0.09628378699022144</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,16 +33567,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.22696060798468</v>
+        <v>1.226960607984679</v>
       </c>
       <c r="H34" t="n">
         <v>10.90879522371834</v>
       </c>
       <c r="I34" t="n">
-        <v>36.89805173830293</v>
+        <v>36.89805173830291</v>
       </c>
       <c r="J34" t="n">
-        <v>86.74611498451685</v>
+        <v>86.74611498451682</v>
       </c>
       <c r="K34" t="n">
         <v>142.5505142731291</v>
@@ -33585,31 +33585,31 @@
         <v>182.4155798452859</v>
       </c>
       <c r="M34" t="n">
-        <v>192.3316523952712</v>
+        <v>192.3316523952711</v>
       </c>
       <c r="N34" t="n">
-        <v>187.7584355836921</v>
+        <v>187.758435583692</v>
       </c>
       <c r="O34" t="n">
-        <v>173.4253048449619</v>
+        <v>173.4253048449618</v>
       </c>
       <c r="P34" t="n">
-        <v>148.3953084420743</v>
+        <v>148.3953084420742</v>
       </c>
       <c r="Q34" t="n">
         <v>102.7412196376989</v>
       </c>
       <c r="R34" t="n">
-        <v>55.16861060992931</v>
+        <v>55.16861060992929</v>
       </c>
       <c r="S34" t="n">
         <v>21.38257714096936</v>
       </c>
       <c r="T34" t="n">
-        <v>5.242468052298175</v>
+        <v>5.242468052298173</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06692512407189169</v>
+        <v>0.06692512407189168</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>2.73529820327329</v>
       </c>
       <c r="H35" t="n">
-        <v>28.01287272427259</v>
+        <v>28.01287272427258</v>
       </c>
       <c r="I35" t="n">
         <v>105.4525839816936</v>
@@ -33658,37 +33658,37 @@
         <v>232.1550158800666</v>
       </c>
       <c r="K35" t="n">
-        <v>347.9401888246251</v>
+        <v>347.940188824625</v>
       </c>
       <c r="L35" t="n">
-        <v>431.6505712130502</v>
+        <v>431.65057121305</v>
       </c>
       <c r="M35" t="n">
-        <v>480.2944306355115</v>
+        <v>480.2944306355113</v>
       </c>
       <c r="N35" t="n">
-        <v>488.0660966555618</v>
+        <v>488.0660966555616</v>
       </c>
       <c r="O35" t="n">
-        <v>460.866975146763</v>
+        <v>460.8669751467628</v>
       </c>
       <c r="P35" t="n">
-        <v>393.3393007534535</v>
+        <v>393.3393007534534</v>
       </c>
       <c r="Q35" t="n">
-        <v>295.3814338487288</v>
+        <v>295.3814338487286</v>
       </c>
       <c r="R35" t="n">
-        <v>171.821175761366</v>
+        <v>171.8211757613659</v>
       </c>
       <c r="S35" t="n">
-        <v>62.33060780709017</v>
+        <v>62.33060780709015</v>
       </c>
       <c r="T35" t="n">
         <v>11.97376788482883</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2188238562618632</v>
+        <v>0.2188238562618631</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,43 +33731,43 @@
         <v>14.13445993016451</v>
       </c>
       <c r="I36" t="n">
-        <v>50.38851519154922</v>
+        <v>50.38851519154921</v>
       </c>
       <c r="J36" t="n">
-        <v>138.2699370370907</v>
+        <v>138.2699370370906</v>
       </c>
       <c r="K36" t="n">
-        <v>236.3253457079322</v>
+        <v>236.3253457079321</v>
       </c>
       <c r="L36" t="n">
-        <v>317.7685916633942</v>
+        <v>317.7685916633941</v>
       </c>
       <c r="M36" t="n">
-        <v>370.8209582950061</v>
+        <v>370.820958295006</v>
       </c>
       <c r="N36" t="n">
-        <v>380.6354856488761</v>
+        <v>380.6354856488759</v>
       </c>
       <c r="O36" t="n">
-        <v>348.2071061905695</v>
+        <v>348.2071061905694</v>
       </c>
       <c r="P36" t="n">
-        <v>279.4669011986841</v>
+        <v>279.466901198684</v>
       </c>
       <c r="Q36" t="n">
         <v>186.8162224375603</v>
       </c>
       <c r="R36" t="n">
-        <v>90.86621924223834</v>
+        <v>90.86621924223832</v>
       </c>
       <c r="S36" t="n">
         <v>27.18412252690583</v>
       </c>
       <c r="T36" t="n">
-        <v>5.898986682934232</v>
+        <v>5.898986682934229</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09628378699022148</v>
+        <v>0.09628378699022144</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,16 +33804,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.22696060798468</v>
+        <v>1.226960607984679</v>
       </c>
       <c r="H37" t="n">
         <v>10.90879522371834</v>
       </c>
       <c r="I37" t="n">
-        <v>36.89805173830293</v>
+        <v>36.89805173830291</v>
       </c>
       <c r="J37" t="n">
-        <v>86.74611498451685</v>
+        <v>86.74611498451682</v>
       </c>
       <c r="K37" t="n">
         <v>142.5505142731291</v>
@@ -33822,31 +33822,31 @@
         <v>182.4155798452859</v>
       </c>
       <c r="M37" t="n">
-        <v>192.3316523952712</v>
+        <v>192.3316523952711</v>
       </c>
       <c r="N37" t="n">
-        <v>187.7584355836921</v>
+        <v>187.758435583692</v>
       </c>
       <c r="O37" t="n">
-        <v>173.4253048449619</v>
+        <v>173.4253048449618</v>
       </c>
       <c r="P37" t="n">
-        <v>148.3953084420743</v>
+        <v>148.3953084420742</v>
       </c>
       <c r="Q37" t="n">
         <v>102.7412196376989</v>
       </c>
       <c r="R37" t="n">
-        <v>55.16861060992931</v>
+        <v>55.16861060992929</v>
       </c>
       <c r="S37" t="n">
         <v>21.38257714096936</v>
       </c>
       <c r="T37" t="n">
-        <v>5.242468052298175</v>
+        <v>5.242468052298173</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06692512407189169</v>
+        <v>0.06692512407189168</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>2.73529820327329</v>
       </c>
       <c r="H38" t="n">
-        <v>28.01287272427259</v>
+        <v>28.01287272427258</v>
       </c>
       <c r="I38" t="n">
         <v>105.4525839816936</v>
@@ -33895,37 +33895,37 @@
         <v>232.1550158800666</v>
       </c>
       <c r="K38" t="n">
-        <v>347.9401888246251</v>
+        <v>347.940188824625</v>
       </c>
       <c r="L38" t="n">
-        <v>431.6505712130502</v>
+        <v>431.65057121305</v>
       </c>
       <c r="M38" t="n">
-        <v>480.2944306355115</v>
+        <v>480.2944306355113</v>
       </c>
       <c r="N38" t="n">
-        <v>488.0660966555618</v>
+        <v>488.0660966555616</v>
       </c>
       <c r="O38" t="n">
-        <v>460.866975146763</v>
+        <v>460.8669751467628</v>
       </c>
       <c r="P38" t="n">
-        <v>393.3393007534535</v>
+        <v>393.3393007534534</v>
       </c>
       <c r="Q38" t="n">
-        <v>295.3814338487288</v>
+        <v>295.3814338487286</v>
       </c>
       <c r="R38" t="n">
-        <v>171.821175761366</v>
+        <v>171.8211757613659</v>
       </c>
       <c r="S38" t="n">
-        <v>62.33060780709017</v>
+        <v>62.33060780709015</v>
       </c>
       <c r="T38" t="n">
         <v>11.97376788482883</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2188238562618632</v>
+        <v>0.2188238562618631</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,43 +33968,43 @@
         <v>14.13445993016451</v>
       </c>
       <c r="I39" t="n">
-        <v>50.38851519154922</v>
+        <v>50.38851519154921</v>
       </c>
       <c r="J39" t="n">
-        <v>138.2699370370907</v>
+        <v>138.2699370370906</v>
       </c>
       <c r="K39" t="n">
-        <v>236.3253457079322</v>
+        <v>236.3253457079321</v>
       </c>
       <c r="L39" t="n">
-        <v>317.7685916633942</v>
+        <v>317.7685916633941</v>
       </c>
       <c r="M39" t="n">
-        <v>370.8209582950061</v>
+        <v>370.820958295006</v>
       </c>
       <c r="N39" t="n">
-        <v>380.6354856488761</v>
+        <v>380.6354856488759</v>
       </c>
       <c r="O39" t="n">
-        <v>348.2071061905695</v>
+        <v>348.2071061905694</v>
       </c>
       <c r="P39" t="n">
-        <v>279.4669011986841</v>
+        <v>279.466901198684</v>
       </c>
       <c r="Q39" t="n">
         <v>186.8162224375603</v>
       </c>
       <c r="R39" t="n">
-        <v>90.86621924223834</v>
+        <v>90.86621924223832</v>
       </c>
       <c r="S39" t="n">
         <v>27.18412252690583</v>
       </c>
       <c r="T39" t="n">
-        <v>5.898986682934232</v>
+        <v>5.898986682934229</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09628378699022148</v>
+        <v>0.09628378699022144</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,16 +34041,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.22696060798468</v>
+        <v>1.226960607984679</v>
       </c>
       <c r="H40" t="n">
         <v>10.90879522371834</v>
       </c>
       <c r="I40" t="n">
-        <v>36.89805173830293</v>
+        <v>36.89805173830291</v>
       </c>
       <c r="J40" t="n">
-        <v>86.74611498451685</v>
+        <v>86.74611498451682</v>
       </c>
       <c r="K40" t="n">
         <v>142.5505142731291</v>
@@ -34059,31 +34059,31 @@
         <v>182.4155798452859</v>
       </c>
       <c r="M40" t="n">
-        <v>192.3316523952712</v>
+        <v>192.3316523952711</v>
       </c>
       <c r="N40" t="n">
-        <v>187.7584355836921</v>
+        <v>187.758435583692</v>
       </c>
       <c r="O40" t="n">
-        <v>173.4253048449619</v>
+        <v>173.4253048449618</v>
       </c>
       <c r="P40" t="n">
-        <v>148.3953084420743</v>
+        <v>148.3953084420742</v>
       </c>
       <c r="Q40" t="n">
         <v>102.7412196376989</v>
       </c>
       <c r="R40" t="n">
-        <v>55.16861060992931</v>
+        <v>55.16861060992929</v>
       </c>
       <c r="S40" t="n">
         <v>21.38257714096936</v>
       </c>
       <c r="T40" t="n">
-        <v>5.242468052298175</v>
+        <v>5.242468052298173</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06692512407189169</v>
+        <v>0.06692512407189168</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>2.73529820327329</v>
       </c>
       <c r="H41" t="n">
-        <v>28.01287272427259</v>
+        <v>28.01287272427258</v>
       </c>
       <c r="I41" t="n">
         <v>105.4525839816936</v>
@@ -34132,37 +34132,37 @@
         <v>232.1550158800666</v>
       </c>
       <c r="K41" t="n">
-        <v>347.9401888246251</v>
+        <v>347.940188824625</v>
       </c>
       <c r="L41" t="n">
-        <v>431.6505712130502</v>
+        <v>431.65057121305</v>
       </c>
       <c r="M41" t="n">
-        <v>480.2944306355115</v>
+        <v>480.2944306355113</v>
       </c>
       <c r="N41" t="n">
-        <v>488.0660966555618</v>
+        <v>488.0660966555616</v>
       </c>
       <c r="O41" t="n">
-        <v>460.866975146763</v>
+        <v>460.8669751467628</v>
       </c>
       <c r="P41" t="n">
-        <v>393.3393007534535</v>
+        <v>393.3393007534534</v>
       </c>
       <c r="Q41" t="n">
-        <v>295.3814338487288</v>
+        <v>295.3814338487286</v>
       </c>
       <c r="R41" t="n">
-        <v>171.821175761366</v>
+        <v>171.8211757613659</v>
       </c>
       <c r="S41" t="n">
-        <v>62.33060780709017</v>
+        <v>62.33060780709015</v>
       </c>
       <c r="T41" t="n">
         <v>11.97376788482883</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2188238562618632</v>
+        <v>0.2188238562618631</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,43 +34205,43 @@
         <v>14.13445993016451</v>
       </c>
       <c r="I42" t="n">
-        <v>50.38851519154922</v>
+        <v>50.38851519154921</v>
       </c>
       <c r="J42" t="n">
-        <v>138.2699370370907</v>
+        <v>138.2699370370906</v>
       </c>
       <c r="K42" t="n">
-        <v>236.3253457079322</v>
+        <v>236.3253457079321</v>
       </c>
       <c r="L42" t="n">
-        <v>317.7685916633942</v>
+        <v>317.7685916633941</v>
       </c>
       <c r="M42" t="n">
-        <v>370.8209582950061</v>
+        <v>370.820958295006</v>
       </c>
       <c r="N42" t="n">
-        <v>380.6354856488761</v>
+        <v>380.6354856488759</v>
       </c>
       <c r="O42" t="n">
-        <v>348.2071061905695</v>
+        <v>348.2071061905694</v>
       </c>
       <c r="P42" t="n">
-        <v>279.4669011986841</v>
+        <v>279.466901198684</v>
       </c>
       <c r="Q42" t="n">
         <v>186.8162224375603</v>
       </c>
       <c r="R42" t="n">
-        <v>90.86621924223834</v>
+        <v>90.86621924223832</v>
       </c>
       <c r="S42" t="n">
         <v>27.18412252690583</v>
       </c>
       <c r="T42" t="n">
-        <v>5.898986682934232</v>
+        <v>5.898986682934229</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09628378699022148</v>
+        <v>0.09628378699022144</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,16 +34278,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.22696060798468</v>
+        <v>1.226960607984679</v>
       </c>
       <c r="H43" t="n">
         <v>10.90879522371834</v>
       </c>
       <c r="I43" t="n">
-        <v>36.89805173830293</v>
+        <v>36.89805173830291</v>
       </c>
       <c r="J43" t="n">
-        <v>86.74611498451685</v>
+        <v>86.74611498451682</v>
       </c>
       <c r="K43" t="n">
         <v>142.5505142731291</v>
@@ -34296,31 +34296,31 @@
         <v>182.4155798452859</v>
       </c>
       <c r="M43" t="n">
-        <v>192.3316523952712</v>
+        <v>192.3316523952711</v>
       </c>
       <c r="N43" t="n">
-        <v>187.7584355836921</v>
+        <v>187.758435583692</v>
       </c>
       <c r="O43" t="n">
-        <v>173.4253048449619</v>
+        <v>173.4253048449618</v>
       </c>
       <c r="P43" t="n">
-        <v>148.3953084420743</v>
+        <v>148.3953084420742</v>
       </c>
       <c r="Q43" t="n">
         <v>102.7412196376989</v>
       </c>
       <c r="R43" t="n">
-        <v>55.16861060992931</v>
+        <v>55.16861060992929</v>
       </c>
       <c r="S43" t="n">
         <v>21.38257714096936</v>
       </c>
       <c r="T43" t="n">
-        <v>5.242468052298175</v>
+        <v>5.242468052298173</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06692512407189169</v>
+        <v>0.06692512407189168</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>2.73529820327329</v>
       </c>
       <c r="H44" t="n">
-        <v>28.01287272427259</v>
+        <v>28.01287272427258</v>
       </c>
       <c r="I44" t="n">
         <v>105.4525839816936</v>
@@ -34369,37 +34369,37 @@
         <v>232.1550158800666</v>
       </c>
       <c r="K44" t="n">
-        <v>347.9401888246251</v>
+        <v>347.940188824625</v>
       </c>
       <c r="L44" t="n">
-        <v>431.6505712130502</v>
+        <v>431.65057121305</v>
       </c>
       <c r="M44" t="n">
-        <v>480.2944306355115</v>
+        <v>480.2944306355113</v>
       </c>
       <c r="N44" t="n">
-        <v>488.0660966555618</v>
+        <v>488.0660966555616</v>
       </c>
       <c r="O44" t="n">
-        <v>460.866975146763</v>
+        <v>460.8669751467628</v>
       </c>
       <c r="P44" t="n">
-        <v>393.3393007534535</v>
+        <v>393.3393007534534</v>
       </c>
       <c r="Q44" t="n">
-        <v>295.3814338487288</v>
+        <v>295.3814338487286</v>
       </c>
       <c r="R44" t="n">
-        <v>171.821175761366</v>
+        <v>171.8211757613659</v>
       </c>
       <c r="S44" t="n">
-        <v>62.33060780709017</v>
+        <v>62.33060780709015</v>
       </c>
       <c r="T44" t="n">
         <v>11.97376788482883</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2188238562618632</v>
+        <v>0.2188238562618631</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,43 +34442,43 @@
         <v>14.13445993016451</v>
       </c>
       <c r="I45" t="n">
-        <v>50.38851519154922</v>
+        <v>50.38851519154921</v>
       </c>
       <c r="J45" t="n">
-        <v>138.2699370370907</v>
+        <v>138.2699370370906</v>
       </c>
       <c r="K45" t="n">
-        <v>236.3253457079322</v>
+        <v>236.3253457079321</v>
       </c>
       <c r="L45" t="n">
-        <v>317.7685916633942</v>
+        <v>317.7685916633941</v>
       </c>
       <c r="M45" t="n">
-        <v>370.8209582950061</v>
+        <v>370.820958295006</v>
       </c>
       <c r="N45" t="n">
-        <v>380.6354856488761</v>
+        <v>380.6354856488759</v>
       </c>
       <c r="O45" t="n">
-        <v>348.2071061905695</v>
+        <v>348.2071061905694</v>
       </c>
       <c r="P45" t="n">
-        <v>279.4669011986841</v>
+        <v>279.466901198684</v>
       </c>
       <c r="Q45" t="n">
         <v>186.8162224375603</v>
       </c>
       <c r="R45" t="n">
-        <v>90.86621924223834</v>
+        <v>90.86621924223832</v>
       </c>
       <c r="S45" t="n">
         <v>27.18412252690583</v>
       </c>
       <c r="T45" t="n">
-        <v>5.898986682934232</v>
+        <v>5.898986682934229</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09628378699022148</v>
+        <v>0.09628378699022144</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,16 +34515,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.22696060798468</v>
+        <v>1.226960607984679</v>
       </c>
       <c r="H46" t="n">
         <v>10.90879522371834</v>
       </c>
       <c r="I46" t="n">
-        <v>36.89805173830293</v>
+        <v>36.89805173830291</v>
       </c>
       <c r="J46" t="n">
-        <v>86.74611498451685</v>
+        <v>86.74611498451682</v>
       </c>
       <c r="K46" t="n">
         <v>142.5505142731291</v>
@@ -34533,31 +34533,31 @@
         <v>182.4155798452859</v>
       </c>
       <c r="M46" t="n">
-        <v>192.3316523952712</v>
+        <v>192.3316523952711</v>
       </c>
       <c r="N46" t="n">
-        <v>187.7584355836921</v>
+        <v>187.758435583692</v>
       </c>
       <c r="O46" t="n">
-        <v>173.4253048449619</v>
+        <v>173.4253048449618</v>
       </c>
       <c r="P46" t="n">
-        <v>148.3953084420743</v>
+        <v>148.3953084420742</v>
       </c>
       <c r="Q46" t="n">
         <v>102.7412196376989</v>
       </c>
       <c r="R46" t="n">
-        <v>55.16861060992931</v>
+        <v>55.16861060992929</v>
       </c>
       <c r="S46" t="n">
         <v>21.38257714096936</v>
       </c>
       <c r="T46" t="n">
-        <v>5.242468052298175</v>
+        <v>5.242468052298173</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06692512407189169</v>
+        <v>0.06692512407189168</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>220.2057265254541</v>
       </c>
       <c r="K11" t="n">
-        <v>451.9957503508093</v>
+        <v>451.9957503508091</v>
       </c>
       <c r="L11" t="n">
-        <v>195.8841562430629</v>
+        <v>195.8841562430628</v>
       </c>
       <c r="M11" t="n">
-        <v>249.9481974082388</v>
+        <v>249.9481974082386</v>
       </c>
       <c r="N11" t="n">
-        <v>652.505385926381</v>
+        <v>258.6530330589707</v>
       </c>
       <c r="O11" t="n">
-        <v>577.9364243022912</v>
+        <v>415.7230205180989</v>
       </c>
       <c r="P11" t="n">
-        <v>162.106304998184</v>
+        <v>483.9050131696665</v>
       </c>
       <c r="Q11" t="n">
-        <v>73.07574397427928</v>
+        <v>285.3907346341838</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>21.95205782021625</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>11.43231037042401</v>
+        <v>137.5233457108328</v>
       </c>
       <c r="K12" t="n">
-        <v>170.8718284482993</v>
+        <v>362.9491437461517</v>
       </c>
       <c r="L12" t="n">
-        <v>179.21421188352</v>
+        <v>550.0545571869791</v>
       </c>
       <c r="M12" t="n">
+        <v>272.6101655404894</v>
+      </c>
+      <c r="N12" t="n">
         <v>652.505385926381</v>
       </c>
-      <c r="N12" t="n">
-        <v>249.2937735655428</v>
-      </c>
       <c r="O12" t="n">
-        <v>599.4731810228545</v>
+        <v>205.610861746125</v>
       </c>
       <c r="P12" t="n">
-        <v>463.955262424291</v>
+        <v>145.4924937843538</v>
       </c>
       <c r="Q12" t="n">
         <v>256.9117360873879</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>57.64910510446286</v>
+        <v>57.64910510446278</v>
       </c>
       <c r="K13" t="n">
-        <v>184.5431926838651</v>
+        <v>184.543192683865</v>
       </c>
       <c r="L13" t="n">
-        <v>274.2677753422209</v>
+        <v>274.2677753422208</v>
       </c>
       <c r="M13" t="n">
-        <v>296.1776995937306</v>
+        <v>296.1776995937304</v>
       </c>
       <c r="N13" t="n">
-        <v>296.1527781995395</v>
+        <v>296.1527781995393</v>
       </c>
       <c r="O13" t="n">
-        <v>262.2726029956203</v>
+        <v>262.2726029956202</v>
       </c>
       <c r="P13" t="n">
-        <v>209.9360379435865</v>
+        <v>209.9360379435864</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.84134662262335</v>
+        <v>80.84134662262326</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>51.10911135338034</v>
+        <v>220.2057265254541</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0952677274323</v>
+        <v>256.1498258810867</v>
       </c>
       <c r="L14" t="n">
-        <v>613.5453707935134</v>
+        <v>195.8841562430628</v>
       </c>
       <c r="M14" t="n">
-        <v>652.5053859263809</v>
+        <v>249.9481974082386</v>
       </c>
       <c r="N14" t="n">
-        <v>258.6530330589709</v>
+        <v>258.6530330589707</v>
       </c>
       <c r="O14" t="n">
-        <v>230.7687637250762</v>
+        <v>611.5689449878214</v>
       </c>
       <c r="P14" t="n">
-        <v>483.9050131696666</v>
+        <v>483.9050131696665</v>
       </c>
       <c r="Q14" t="n">
-        <v>73.07574397427928</v>
+        <v>285.3907346341838</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>21.95205782021625</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>137.5233457108328</v>
       </c>
       <c r="K15" t="n">
-        <v>362.9491437461518</v>
+        <v>362.9491437461517</v>
       </c>
       <c r="L15" t="n">
-        <v>494.9416105345008</v>
+        <v>179.2142118835199</v>
       </c>
       <c r="M15" t="n">
-        <v>228.6869243729878</v>
+        <v>228.6869243729877</v>
       </c>
       <c r="N15" t="n">
-        <v>249.2937735655428</v>
+        <v>652.505385926381</v>
       </c>
       <c r="O15" t="n">
-        <v>599.4731810228545</v>
+        <v>301.9116795771488</v>
       </c>
       <c r="P15" t="n">
-        <v>463.955262424291</v>
+        <v>463.9552624242909</v>
       </c>
       <c r="Q15" t="n">
-        <v>46.83444835153881</v>
+        <v>256.9117360873879</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>57.64910510446286</v>
+        <v>57.64910510446283</v>
       </c>
       <c r="K16" t="n">
-        <v>184.5431926838651</v>
+        <v>184.543192683865</v>
       </c>
       <c r="L16" t="n">
-        <v>274.2677753422209</v>
+        <v>274.2677753422208</v>
       </c>
       <c r="M16" t="n">
-        <v>296.1776995937306</v>
+        <v>296.1776995937305</v>
       </c>
       <c r="N16" t="n">
-        <v>296.1527781995395</v>
+        <v>296.1527781995394</v>
       </c>
       <c r="O16" t="n">
         <v>262.2726029956203</v>
@@ -35823,7 +35823,7 @@
         <v>209.9360379435865</v>
       </c>
       <c r="Q16" t="n">
-        <v>80.84134662262335</v>
+        <v>80.84134662262332</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>220.2057265254541</v>
       </c>
       <c r="K17" t="n">
-        <v>127.8503377796445</v>
+        <v>234.3928186256886</v>
       </c>
       <c r="L17" t="n">
-        <v>545.3985212199597</v>
+        <v>195.8841562430628</v>
       </c>
       <c r="M17" t="n">
-        <v>249.9481974082388</v>
+        <v>652.5053859263809</v>
       </c>
       <c r="N17" t="n">
-        <v>652.5053859263809</v>
+        <v>258.6530330589707</v>
       </c>
       <c r="O17" t="n">
-        <v>230.7687637250762</v>
+        <v>230.7687637250761</v>
       </c>
       <c r="P17" t="n">
-        <v>483.9050131696666</v>
+        <v>483.9050131696665</v>
       </c>
       <c r="Q17" t="n">
-        <v>73.07574397427928</v>
+        <v>285.3907346341838</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>21.95205782021625</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>137.5233457108328</v>
       </c>
       <c r="K18" t="n">
-        <v>362.9491437461518</v>
+        <v>362.9491437461517</v>
       </c>
       <c r="L18" t="n">
-        <v>179.21421188352</v>
+        <v>550.0545571869791</v>
       </c>
       <c r="M18" t="n">
-        <v>652.5053859263809</v>
+        <v>357.3590092613905</v>
       </c>
       <c r="N18" t="n">
-        <v>324.9877422040104</v>
+        <v>249.2937735655426</v>
       </c>
       <c r="O18" t="n">
-        <v>205.6108617461251</v>
+        <v>205.610861746125</v>
       </c>
       <c r="P18" t="n">
-        <v>463.955262424291</v>
+        <v>463.9552624242909</v>
       </c>
       <c r="Q18" t="n">
         <v>256.9117360873879</v>
@@ -36042,25 +36042,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>120.2810224472463</v>
+        <v>120.2810224472462</v>
       </c>
       <c r="L19" t="n">
-        <v>210.0056051056021</v>
+        <v>210.005605105602</v>
       </c>
       <c r="M19" t="n">
-        <v>231.9155293571118</v>
+        <v>231.9155293571117</v>
       </c>
       <c r="N19" t="n">
-        <v>231.8906079629207</v>
+        <v>231.8906079629206</v>
       </c>
       <c r="O19" t="n">
-        <v>198.0104327590016</v>
+        <v>198.0104327590015</v>
       </c>
       <c r="P19" t="n">
-        <v>145.6738677069678</v>
+        <v>145.6738677069677</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.57917638600456</v>
+        <v>16.57917638600453</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>51.10911135338034</v>
+        <v>220.2057265254541</v>
       </c>
       <c r="K20" t="n">
-        <v>366.4400185267153</v>
+        <v>451.9957503508091</v>
       </c>
       <c r="L20" t="n">
-        <v>195.8841562430629</v>
+        <v>195.8841562430628</v>
       </c>
       <c r="M20" t="n">
-        <v>652.5053859263809</v>
+        <v>249.9481974082386</v>
       </c>
       <c r="N20" t="n">
-        <v>258.6530330589709</v>
+        <v>258.6530330589707</v>
       </c>
       <c r="O20" t="n">
-        <v>611.5689449878216</v>
+        <v>415.7230205180989</v>
       </c>
       <c r="P20" t="n">
-        <v>162.106304998184</v>
+        <v>483.9050131696665</v>
       </c>
       <c r="Q20" t="n">
-        <v>285.390734634184</v>
+        <v>285.3907346341838</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>21.95205782021625</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>137.5233457108328</v>
       </c>
       <c r="K21" t="n">
-        <v>98.48390673357321</v>
+        <v>362.9491437461517</v>
       </c>
       <c r="L21" t="n">
-        <v>550.0545571869792</v>
+        <v>550.0545571869791</v>
       </c>
       <c r="M21" t="n">
-        <v>652.5053859263809</v>
+        <v>228.6869243729877</v>
       </c>
       <c r="N21" t="n">
-        <v>652.5053859263809</v>
+        <v>249.2937735655426</v>
       </c>
       <c r="O21" t="n">
-        <v>300.2581661086612</v>
+        <v>334.2829466345278</v>
       </c>
       <c r="P21" t="n">
-        <v>145.4924937843538</v>
+        <v>463.9552624242909</v>
       </c>
       <c r="Q21" t="n">
-        <v>46.83444835153881</v>
+        <v>256.9117360873879</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,25 +36279,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>120.2810224472463</v>
+        <v>120.2810224472462</v>
       </c>
       <c r="L22" t="n">
-        <v>210.0056051056021</v>
+        <v>210.005605105602</v>
       </c>
       <c r="M22" t="n">
-        <v>231.9155293571118</v>
+        <v>231.9155293571117</v>
       </c>
       <c r="N22" t="n">
-        <v>231.8906079629207</v>
+        <v>231.8906079629206</v>
       </c>
       <c r="O22" t="n">
-        <v>198.0104327590016</v>
+        <v>198.0104327590015</v>
       </c>
       <c r="P22" t="n">
-        <v>145.6738677069678</v>
+        <v>145.6738677069677</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.57917638600456</v>
+        <v>16.57917638600453</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>220.2057265254541</v>
       </c>
       <c r="K23" t="n">
-        <v>451.9957503508093</v>
+        <v>127.8503377796444</v>
       </c>
       <c r="L23" t="n">
-        <v>613.5453707935134</v>
+        <v>426.6346687949906</v>
       </c>
       <c r="M23" t="n">
-        <v>256.0315571186575</v>
+        <v>249.9481974082386</v>
       </c>
       <c r="N23" t="n">
-        <v>678.379496693213</v>
+        <v>258.6530330589707</v>
       </c>
       <c r="O23" t="n">
-        <v>230.7687637250762</v>
+        <v>611.5689449878214</v>
       </c>
       <c r="P23" t="n">
-        <v>162.106304998184</v>
+        <v>483.9050131696665</v>
       </c>
       <c r="Q23" t="n">
-        <v>73.07574397427928</v>
+        <v>285.3907346341838</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>21.95205782021625</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>11.43231037042401</v>
+        <v>137.5233457108328</v>
       </c>
       <c r="K24" t="n">
-        <v>362.9491437461518</v>
+        <v>362.9491437461517</v>
       </c>
       <c r="L24" t="n">
-        <v>550.0545571869792</v>
+        <v>550.0545571869791</v>
       </c>
       <c r="M24" t="n">
-        <v>264.4416092099777</v>
+        <v>228.6869243729877</v>
       </c>
       <c r="N24" t="n">
-        <v>678.379496693213</v>
+        <v>249.2937735655426</v>
       </c>
       <c r="O24" t="n">
-        <v>205.6108617461251</v>
+        <v>334.2829466345278</v>
       </c>
       <c r="P24" t="n">
-        <v>463.955262424291</v>
+        <v>463.9552624242909</v>
       </c>
       <c r="Q24" t="n">
-        <v>46.83444835153881</v>
+        <v>256.9117360873879</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,25 +36516,25 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>120.2810224472463</v>
+        <v>120.2810224472462</v>
       </c>
       <c r="L25" t="n">
-        <v>210.0056051056021</v>
+        <v>210.005605105602</v>
       </c>
       <c r="M25" t="n">
-        <v>231.9155293571118</v>
+        <v>231.9155293571117</v>
       </c>
       <c r="N25" t="n">
-        <v>231.8906079629207</v>
+        <v>231.8906079629206</v>
       </c>
       <c r="O25" t="n">
-        <v>198.0104327590016</v>
+        <v>198.0104327590015</v>
       </c>
       <c r="P25" t="n">
-        <v>145.6738677069678</v>
+        <v>145.6738677069677</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.57917638600456</v>
+        <v>16.57917638600453</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>220.2057265254542</v>
+        <v>220.2057265254541</v>
       </c>
       <c r="K26" t="n">
-        <v>451.9957503508093</v>
+        <v>451.9957503508091</v>
       </c>
       <c r="L26" t="n">
-        <v>613.5453707935135</v>
+        <v>539.5259653189487</v>
       </c>
       <c r="M26" t="n">
-        <v>699.4617309010713</v>
+        <v>699.4617309010711</v>
       </c>
       <c r="N26" t="n">
-        <v>695.9999574709551</v>
+        <v>695.9999574709549</v>
       </c>
       <c r="O26" t="n">
-        <v>230.7687637250763</v>
+        <v>230.7687637250761</v>
       </c>
       <c r="P26" t="n">
-        <v>483.9050131696667</v>
+        <v>483.9050131696665</v>
       </c>
       <c r="Q26" t="n">
-        <v>233.3233869798351</v>
+        <v>285.3907346341838</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>21.95205782021625</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>137.5233457108329</v>
+        <v>137.5233457108328</v>
       </c>
       <c r="K27" t="n">
-        <v>362.9491437461518</v>
+        <v>362.9491437461517</v>
       </c>
       <c r="L27" t="n">
-        <v>517.8470363717647</v>
+        <v>550.0545571869791</v>
       </c>
       <c r="M27" t="n">
-        <v>228.6869243729878</v>
+        <v>357.3590092613907</v>
       </c>
       <c r="N27" t="n">
-        <v>728.6361479090964</v>
+        <v>249.2937735655426</v>
       </c>
       <c r="O27" t="n">
-        <v>205.6108617461251</v>
+        <v>205.610861746125</v>
       </c>
       <c r="P27" t="n">
-        <v>145.4924937843539</v>
+        <v>463.9552624242909</v>
       </c>
       <c r="Q27" t="n">
-        <v>256.911736087388</v>
+        <v>256.9117360873879</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.75126804819546</v>
+        <v>73.75126804819548</v>
       </c>
       <c r="K28" t="n">
-        <v>200.6453556275976</v>
+        <v>200.6453556275968</v>
       </c>
       <c r="L28" t="n">
         <v>290.3699382859535</v>
@@ -36765,13 +36765,13 @@
         <v>312.254941143272</v>
       </c>
       <c r="O28" t="n">
-        <v>278.374765939353</v>
+        <v>278.3747659393529</v>
       </c>
       <c r="P28" t="n">
-        <v>226.0382008873192</v>
+        <v>226.0382008873191</v>
       </c>
       <c r="Q28" t="n">
-        <v>96.94350956635596</v>
+        <v>96.94350956635597</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>220.2057265254541</v>
       </c>
       <c r="K29" t="n">
-        <v>451.9957503508093</v>
+        <v>451.9957503508091</v>
       </c>
       <c r="L29" t="n">
-        <v>613.5453707935134</v>
+        <v>613.5453707935133</v>
       </c>
       <c r="M29" t="n">
-        <v>478.9091926438815</v>
+        <v>681.9890685757446</v>
       </c>
       <c r="N29" t="n">
-        <v>695.999957470955</v>
+        <v>258.6530330589707</v>
       </c>
       <c r="O29" t="n">
-        <v>611.5689449878216</v>
+        <v>611.5689449878214</v>
       </c>
       <c r="P29" t="n">
-        <v>483.9050131696666</v>
+        <v>483.9050131696665</v>
       </c>
       <c r="Q29" t="n">
-        <v>73.07574397427928</v>
+        <v>285.3907346341838</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>21.95205782021625</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>137.5233457108328</v>
       </c>
       <c r="K30" t="n">
-        <v>98.48390673357321</v>
+        <v>362.9491437461517</v>
       </c>
       <c r="L30" t="n">
-        <v>179.21421188352</v>
+        <v>550.0545571869791</v>
       </c>
       <c r="M30" t="n">
-        <v>437.9226665970822</v>
+        <v>228.6869243729877</v>
       </c>
       <c r="N30" t="n">
-        <v>728.6361479090963</v>
+        <v>249.2937735655426</v>
       </c>
       <c r="O30" t="n">
-        <v>599.4731810228545</v>
+        <v>334.2829466345282</v>
       </c>
       <c r="P30" t="n">
-        <v>145.4924937843538</v>
+        <v>463.9552624242909</v>
       </c>
       <c r="Q30" t="n">
         <v>256.9117360873879</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.75126804819544</v>
+        <v>73.75126804819543</v>
       </c>
       <c r="K31" t="n">
         <v>200.6453556275976</v>
       </c>
       <c r="L31" t="n">
-        <v>290.3699382859535</v>
+        <v>290.3699382859534</v>
       </c>
       <c r="M31" t="n">
         <v>312.2798625374631</v>
@@ -37008,7 +37008,7 @@
         <v>226.0382008873191</v>
       </c>
       <c r="Q31" t="n">
-        <v>96.94350956635593</v>
+        <v>96.94350956635591</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>220.2057265254541</v>
       </c>
       <c r="K32" t="n">
-        <v>209.4911542734035</v>
+        <v>451.9957503508091</v>
       </c>
       <c r="L32" t="n">
-        <v>613.5453707935134</v>
+        <v>613.5453707935133</v>
       </c>
       <c r="M32" t="n">
-        <v>699.4617309010713</v>
+        <v>249.9481974082386</v>
       </c>
       <c r="N32" t="n">
-        <v>695.999957470955</v>
+        <v>690.6939042264777</v>
       </c>
       <c r="O32" t="n">
-        <v>611.5689449878216</v>
+        <v>611.5689449878214</v>
       </c>
       <c r="P32" t="n">
-        <v>483.9050131696666</v>
+        <v>483.9050131696665</v>
       </c>
       <c r="Q32" t="n">
-        <v>73.07574397427928</v>
+        <v>285.3907346341838</v>
       </c>
       <c r="R32" t="n">
-        <v>21.95205782021631</v>
+        <v>21.95205782021625</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>11.43231037042401</v>
+        <v>137.5233457108328</v>
       </c>
       <c r="K33" t="n">
-        <v>362.9491437461518</v>
+        <v>362.9491437461517</v>
       </c>
       <c r="L33" t="n">
-        <v>550.0545571869792</v>
+        <v>550.0545571869791</v>
       </c>
       <c r="M33" t="n">
-        <v>228.6869243729878</v>
+        <v>357.3590092613907</v>
       </c>
       <c r="N33" t="n">
-        <v>728.6361479090963</v>
+        <v>249.2937735655426</v>
       </c>
       <c r="O33" t="n">
-        <v>205.6108617461251</v>
+        <v>205.610861746125</v>
       </c>
       <c r="P33" t="n">
-        <v>239.3760083095486</v>
+        <v>463.9552624242909</v>
       </c>
       <c r="Q33" t="n">
         <v>256.9117360873879</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.75126804819543</v>
+        <v>73.75126804819547</v>
       </c>
       <c r="K34" t="n">
         <v>200.6453556275976</v>
       </c>
       <c r="L34" t="n">
-        <v>290.3699382859534</v>
+        <v>290.3699382859535</v>
       </c>
       <c r="M34" t="n">
         <v>312.2798625374631</v>
@@ -37245,7 +37245,7 @@
         <v>226.0382008873191</v>
       </c>
       <c r="Q34" t="n">
-        <v>96.94350956635591</v>
+        <v>96.94350956635596</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37306,28 @@
         <v>220.2057265254541</v>
       </c>
       <c r="K35" t="n">
-        <v>127.8503377796445</v>
+        <v>451.9957503508091</v>
       </c>
       <c r="L35" t="n">
-        <v>613.5453707935134</v>
+        <v>613.5453707935133</v>
       </c>
       <c r="M35" t="n">
-        <v>699.4617309010713</v>
+        <v>681.9890685757456</v>
       </c>
       <c r="N35" t="n">
-        <v>695.999957470955</v>
+        <v>258.6530330589707</v>
       </c>
       <c r="O35" t="n">
-        <v>502.8468286418929</v>
+        <v>611.5689449878214</v>
       </c>
       <c r="P35" t="n">
-        <v>483.9050131696666</v>
+        <v>483.9050131696665</v>
       </c>
       <c r="Q35" t="n">
-        <v>285.390734634184</v>
+        <v>285.3907346341838</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>21.95205782021625</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>137.5233457108328</v>
       </c>
       <c r="K36" t="n">
-        <v>98.48390673357321</v>
+        <v>98.48390673357312</v>
       </c>
       <c r="L36" t="n">
-        <v>179.21421188352</v>
+        <v>549.3295598112313</v>
       </c>
       <c r="M36" t="n">
-        <v>329.5371856929942</v>
+        <v>228.6869243729877</v>
       </c>
       <c r="N36" t="n">
-        <v>728.6361479090963</v>
+        <v>249.2937735655426</v>
       </c>
       <c r="O36" t="n">
         <v>599.4731810228545</v>
       </c>
       <c r="P36" t="n">
-        <v>463.955262424291</v>
+        <v>463.9552624242909</v>
       </c>
       <c r="Q36" t="n">
-        <v>46.83444835153881</v>
+        <v>256.9117360873879</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.75126804819543</v>
+        <v>73.75126804819547</v>
       </c>
       <c r="K37" t="n">
         <v>200.6453556275976</v>
       </c>
       <c r="L37" t="n">
-        <v>290.3699382859534</v>
+        <v>290.3699382859535</v>
       </c>
       <c r="M37" t="n">
         <v>312.2798625374631</v>
@@ -37479,10 +37479,10 @@
         <v>278.3747659393529</v>
       </c>
       <c r="P37" t="n">
-        <v>226.0382008873194</v>
+        <v>226.0382008873182</v>
       </c>
       <c r="Q37" t="n">
-        <v>96.94350956635591</v>
+        <v>96.94350956635596</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,25 +37543,25 @@
         <v>220.2057265254541</v>
       </c>
       <c r="K38" t="n">
-        <v>451.9957503508093</v>
+        <v>451.9957503508091</v>
       </c>
       <c r="L38" t="n">
-        <v>195.8841562430629</v>
+        <v>613.5453707935133</v>
       </c>
       <c r="M38" t="n">
-        <v>684.2554165344276</v>
+        <v>699.4617309010711</v>
       </c>
       <c r="N38" t="n">
-        <v>695.999957470955</v>
+        <v>263.1324285538618</v>
       </c>
       <c r="O38" t="n">
-        <v>611.5689449878216</v>
+        <v>611.5689449878214</v>
       </c>
       <c r="P38" t="n">
-        <v>483.9050131696666</v>
+        <v>483.9050131696665</v>
       </c>
       <c r="Q38" t="n">
-        <v>285.390734634184</v>
+        <v>285.3907346341838</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>11.43231037042401</v>
+        <v>137.5233457108328</v>
       </c>
       <c r="K39" t="n">
-        <v>201.2048822571961</v>
+        <v>362.9491437461517</v>
       </c>
       <c r="L39" t="n">
-        <v>550.0545571869792</v>
+        <v>550.0545571869791</v>
       </c>
       <c r="M39" t="n">
-        <v>694.3919881229876</v>
+        <v>228.6869243729877</v>
       </c>
       <c r="N39" t="n">
-        <v>728.6361479090963</v>
+        <v>249.2937735655426</v>
       </c>
       <c r="O39" t="n">
-        <v>205.6108617461251</v>
+        <v>334.2829466345282</v>
       </c>
       <c r="P39" t="n">
-        <v>145.4924937843538</v>
+        <v>463.9552624242909</v>
       </c>
       <c r="Q39" t="n">
-        <v>46.83444835153881</v>
+        <v>256.9117360873879</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.75126804819543</v>
+        <v>73.75126804819547</v>
       </c>
       <c r="K40" t="n">
-        <v>200.6453556275978</v>
+        <v>200.6453556275976</v>
       </c>
       <c r="L40" t="n">
-        <v>290.3699382859534</v>
+        <v>290.3699382859535</v>
       </c>
       <c r="M40" t="n">
         <v>312.2798625374631</v>
       </c>
       <c r="N40" t="n">
-        <v>312.254941143272</v>
+        <v>312.2549411432711</v>
       </c>
       <c r="O40" t="n">
         <v>278.3747659393529</v>
@@ -37719,7 +37719,7 @@
         <v>226.0382008873191</v>
       </c>
       <c r="Q40" t="n">
-        <v>96.94350956635591</v>
+        <v>96.94350956635596</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,25 +37780,25 @@
         <v>220.2057265254541</v>
       </c>
       <c r="K41" t="n">
-        <v>451.9957503508093</v>
+        <v>451.9957503508091</v>
       </c>
       <c r="L41" t="n">
-        <v>613.5453707935134</v>
+        <v>613.5453707935133</v>
       </c>
       <c r="M41" t="n">
-        <v>699.4617309010713</v>
+        <v>266.5942019839781</v>
       </c>
       <c r="N41" t="n">
-        <v>263.1324285538613</v>
+        <v>695.9999574709549</v>
       </c>
       <c r="O41" t="n">
-        <v>611.5689449878216</v>
+        <v>611.5689449878214</v>
       </c>
       <c r="P41" t="n">
-        <v>483.9050131696666</v>
+        <v>483.9050131696665</v>
       </c>
       <c r="Q41" t="n">
-        <v>285.390734634184</v>
+        <v>285.3907346341838</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>95.93116151590245</v>
+        <v>137.5233457108328</v>
       </c>
       <c r="K42" t="n">
-        <v>362.9491437461518</v>
+        <v>362.9491437461517</v>
       </c>
       <c r="L42" t="n">
-        <v>179.21421188352</v>
+        <v>550.0545571869791</v>
       </c>
       <c r="M42" t="n">
-        <v>694.3919881229876</v>
+        <v>357.3590092613907</v>
       </c>
       <c r="N42" t="n">
-        <v>249.2937735655428</v>
+        <v>249.2937735655426</v>
       </c>
       <c r="O42" t="n">
-        <v>599.4731810228545</v>
+        <v>205.610861746125</v>
       </c>
       <c r="P42" t="n">
-        <v>145.4924937843538</v>
+        <v>463.9552624242909</v>
       </c>
       <c r="Q42" t="n">
         <v>256.9117360873879</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.75126804819544</v>
+        <v>73.75126804819541</v>
       </c>
       <c r="K43" t="n">
         <v>200.6453556275976</v>
       </c>
       <c r="L43" t="n">
-        <v>290.3699382859535</v>
+        <v>290.3699382859534</v>
       </c>
       <c r="M43" t="n">
-        <v>312.2798625374631</v>
+        <v>312.279862537463</v>
       </c>
       <c r="N43" t="n">
-        <v>312.254941143272</v>
+        <v>312.2549411432719</v>
       </c>
       <c r="O43" t="n">
         <v>278.3747659393529</v>
@@ -37956,7 +37956,7 @@
         <v>226.0382008873191</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.94350956635593</v>
+        <v>96.9435095663559</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>146.1863210508893</v>
+        <v>220.2057265254541</v>
       </c>
       <c r="K44" t="n">
-        <v>451.9957503508093</v>
+        <v>451.9957503508091</v>
       </c>
       <c r="L44" t="n">
-        <v>613.5453707935134</v>
+        <v>613.5453707935133</v>
       </c>
       <c r="M44" t="n">
-        <v>699.4617309010713</v>
+        <v>249.9481974082386</v>
       </c>
       <c r="N44" t="n">
-        <v>695.999957470955</v>
+        <v>690.6939042264786</v>
       </c>
       <c r="O44" t="n">
-        <v>230.7687637250762</v>
+        <v>611.5689449878214</v>
       </c>
       <c r="P44" t="n">
-        <v>483.9050131696666</v>
+        <v>483.9050131696665</v>
       </c>
       <c r="Q44" t="n">
-        <v>285.390734634184</v>
+        <v>285.3907346341838</v>
       </c>
       <c r="R44" t="n">
-        <v>21.95205782021631</v>
+        <v>21.95205782021625</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>137.5233457108328</v>
+        <v>11.43231037042395</v>
       </c>
       <c r="K45" t="n">
-        <v>362.9491437461518</v>
+        <v>98.48390673357312</v>
       </c>
       <c r="L45" t="n">
-        <v>550.0545571869792</v>
+        <v>550.0545571869791</v>
       </c>
       <c r="M45" t="n">
-        <v>228.6869243729878</v>
+        <v>694.3919881229876</v>
       </c>
       <c r="N45" t="n">
-        <v>512.6435955530021</v>
+        <v>249.2937735655426</v>
       </c>
       <c r="O45" t="n">
         <v>599.4731810228545</v>
       </c>
       <c r="P45" t="n">
-        <v>145.4924937843538</v>
+        <v>333.6935243748012</v>
       </c>
       <c r="Q45" t="n">
-        <v>46.83444835153881</v>
+        <v>46.83444835153875</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.75126804819544</v>
+        <v>73.75126804819541</v>
       </c>
       <c r="K46" t="n">
         <v>200.6453556275976</v>
       </c>
       <c r="L46" t="n">
-        <v>290.3699382859536</v>
+        <v>290.3699382859534</v>
       </c>
       <c r="M46" t="n">
-        <v>312.2798625374631</v>
+        <v>312.279862537463</v>
       </c>
       <c r="N46" t="n">
-        <v>312.254941143272</v>
+        <v>312.2549411432719</v>
       </c>
       <c r="O46" t="n">
-        <v>278.3747659393529</v>
+        <v>278.3747659393532</v>
       </c>
       <c r="P46" t="n">
         <v>226.0382008873191</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.94350956635593</v>
+        <v>96.9435095663559</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
